--- a/cohorts2/ref/cohorts1-prev/raw/Riley NF1 Glioma Data (Mouse Cohorts).xlsx
+++ b/cohorts2/ref/cohorts1-prev/raw/Riley NF1 Glioma Data (Mouse Cohorts).xlsx
@@ -1,19 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_12ED294DA5829E4C17BF412976FBCEC1A80EA63A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{681EF1C1-04F0-4713-9560-A470D60C0C62}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7020"/>
+    <workbookView xWindow="31140" yWindow="2430" windowWidth="25185" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouse Information" sheetId="1" r:id="rId1"/>
     <sheet name="Pathologist Comments" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -989,7 +1001,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1260,7 +1272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,26 +1284,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1307,7 +1316,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1319,33 +1328,18 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1384,8 +1378,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1396,14 +1389,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1411,12 +1403,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,7 +1413,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,24 +1427,8 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,10 +1482,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1522,16 +1492,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1539,22 +1501,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1564,7 +1517,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1861,33 +1813,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.140625" customWidth="1"/>
@@ -1924,10 +1876,10 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="44" t="s">
         <v>120</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1954,34 +1906,34 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>44531</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="J2" s="32">
+      <c r="H2" s="24"/>
+      <c r="J2" s="24">
         <v>44719</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="54">
+      <c r="K2" s="24"/>
+      <c r="L2" s="45">
         <v>44679</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14">
         <f t="shared" ref="O2:O13" si="0">DATEDIF(F2, J2, "d")</f>
         <v>188</v>
       </c>
@@ -1993,37 +1945,37 @@
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>44531</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="24">
         <v>44656</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="24">
         <v>44719</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="55">
+      <c r="K3" s="24"/>
+      <c r="L3" s="46">
         <v>44679</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
@@ -2035,37 +1987,37 @@
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>44531</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="24">
         <v>44656</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="24">
         <v>44719</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="55">
+      <c r="K4" s="24"/>
+      <c r="L4" s="46">
         <v>44679</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
@@ -2077,37 +2029,37 @@
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>44536</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="24">
         <v>44564</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="24">
         <v>44719</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="55">
+      <c r="K5" s="24"/>
+      <c r="L5" s="46">
         <v>44679</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
@@ -2119,34 +2071,34 @@
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>44536</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="24">
         <v>44719</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="55">
+      <c r="K6" s="24"/>
+      <c r="L6" s="46">
         <v>44679</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
@@ -2158,34 +2110,34 @@
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>44536</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>44719</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="55">
+      <c r="K7" s="24"/>
+      <c r="L7" s="46">
         <v>44679</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
@@ -2197,34 +2149,34 @@
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>44536</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>44719</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="55">
+      <c r="K8" s="24"/>
+      <c r="L8" s="46">
         <v>44679</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
@@ -2236,34 +2188,34 @@
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>44536</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="24">
         <v>44719</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="56">
+      <c r="K9" s="24"/>
+      <c r="L9" s="47">
         <v>44679</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
@@ -2275,35 +2227,35 @@
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>44579</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="24">
         <v>44733</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="54">
+      <c r="K10" s="24"/>
+      <c r="L10" s="45">
         <f t="shared" ref="L10:L21" si="1">F10+120</f>
         <v>44699</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
@@ -2315,35 +2267,35 @@
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>44579</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="24">
         <v>44733</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="55">
+      <c r="K11" s="24"/>
+      <c r="L11" s="46">
         <f t="shared" si="1"/>
         <v>44699</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
@@ -2355,35 +2307,35 @@
       <c r="A12" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>44579</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="24">
         <v>44733</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="55">
+      <c r="K12" s="24"/>
+      <c r="L12" s="46">
         <f t="shared" si="1"/>
         <v>44699</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
@@ -2395,35 +2347,35 @@
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>44579</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="24">
         <v>44733</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="55">
+      <c r="K13" s="24"/>
+      <c r="L13" s="46">
         <f t="shared" si="1"/>
         <v>44699</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
@@ -2435,4419 +2387,4303 @@
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>44602</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24">
         <f t="shared" ref="K14:K21" si="2">F14+150</f>
         <v>44752</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="45">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>44602</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32">
+      <c r="J15" s="24"/>
+      <c r="K15" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="46">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:19" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>44602</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="46">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>44602</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32">
+      <c r="J17" s="24"/>
+      <c r="K17" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="46">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:18" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>44602</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32">
+      <c r="J18" s="24"/>
+      <c r="K18" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="46">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:18" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>44602</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32">
+      <c r="J19" s="24"/>
+      <c r="K19" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="46">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:18" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>44602</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32">
+      <c r="J20" s="24"/>
+      <c r="K20" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="46">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:18" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>44602</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32">
+      <c r="J21" s="24"/>
+      <c r="K21" s="24">
         <f t="shared" si="2"/>
         <v>44752</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="47">
         <f t="shared" si="1"/>
         <v>44722</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-    </row>
-    <row r="22" spans="1:18" s="141" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="141" t="s">
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" s="108" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="143" t="s">
+      <c r="C22" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="144" t="s">
+      <c r="E22" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="145">
+      <c r="F22" s="112">
         <v>44579</v>
       </c>
-      <c r="G22" s="145" t="s">
+      <c r="G22" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="146">
+      <c r="I22" s="113">
         <v>44635</v>
       </c>
-      <c r="J22" s="146">
+      <c r="J22" s="113">
         <v>44635</v>
       </c>
-      <c r="K22" s="146"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148">
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114">
         <f>DATEDIF(F22, I22, "d")</f>
         <v>56</v>
       </c>
-      <c r="O22" s="148">
+      <c r="O22" s="114">
         <f>DATEDIF(F22, J22, "d")</f>
         <v>56</v>
       </c>
-      <c r="Q22" s="148" t="s">
+      <c r="Q22" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="R22" s="141" t="s">
+      <c r="R22" s="108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="141" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
+    <row r="23" spans="1:18" s="108" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="143" t="s">
+      <c r="C23" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="144" t="s">
+      <c r="E23" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="145">
+      <c r="F23" s="112">
         <v>44579</v>
       </c>
-      <c r="G23" s="145" t="s">
+      <c r="G23" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="146">
+      <c r="I23" s="113">
         <v>44635</v>
       </c>
-      <c r="J23" s="146">
+      <c r="J23" s="113">
         <v>44635</v>
       </c>
-      <c r="K23" s="146"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148">
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114">
         <f>DATEDIF(F23, I23, "d")</f>
         <v>56</v>
       </c>
-      <c r="O23" s="148">
+      <c r="O23" s="114">
         <f>DATEDIF(F23, J23, "d")</f>
         <v>56</v>
       </c>
-      <c r="Q23" s="148" t="s">
+      <c r="Q23" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="R23" s="141" t="s">
+      <c r="R23" s="108" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+    <row r="24" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98">
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76">
         <f>AVERAGE(N8:N23)</f>
         <v>56</v>
       </c>
-      <c r="O24" s="98">
+      <c r="O24" s="76">
         <f>AVERAGE(O8:O23)</f>
         <v>136.75</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+    <row r="25" spans="1:18" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-    </row>
-    <row r="26" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+    </row>
+    <row r="26" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>44601</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39">
+      <c r="J26" s="30"/>
+      <c r="K26" s="31">
         <f>F26+150</f>
         <v>44751</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="49">
         <f t="shared" ref="L26:L37" si="3">F26+120</f>
         <v>44721</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="40" t="s">
+      <c r="C27" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>44601</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="31">
         <f>F27+150</f>
         <v>44751</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="49">
         <f t="shared" si="3"/>
         <v>44721</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>44601</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="31">
         <f t="shared" ref="K28:K52" si="4">F28+150</f>
         <v>44751</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="49">
         <f t="shared" si="3"/>
         <v>44721</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>44601</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="31">
         <v>44655</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="31">
         <f t="shared" si="4"/>
         <v>44751</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="49">
         <f t="shared" si="3"/>
         <v>44721</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12">
         <f t="shared" ref="N29:N34" si="5">DATEDIF(F29, I29, "d")</f>
         <v>54</v>
       </c>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>44601</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="31">
         <v>44655</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="31">
         <v>44722</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="58">
+      <c r="K30" s="31"/>
+      <c r="L30" s="49">
         <f t="shared" si="3"/>
         <v>44721</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="12">
         <f>DATEDIF(F30, J30, "d")</f>
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:18" s="8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>44601</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="31">
         <v>44656</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="31">
         <v>44722</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="59">
+      <c r="K31" s="31"/>
+      <c r="L31" s="50">
         <f t="shared" si="3"/>
         <v>44721</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="12">
         <f>DATEDIF(F31, J31, "d")</f>
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+    <row r="32" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>44643</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="31">
         <v>44690</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="31">
         <f t="shared" si="4"/>
         <v>44793</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="48">
         <f t="shared" si="3"/>
         <v>44763</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>44643</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="31">
         <v>44690</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="31">
         <f t="shared" si="4"/>
         <v>44793</v>
       </c>
-      <c r="L33" s="58">
+      <c r="L33" s="49">
         <f t="shared" si="3"/>
         <v>44763</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>44643</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="31">
         <v>44690</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="31">
         <f t="shared" si="4"/>
         <v>44793</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="49">
         <f t="shared" si="3"/>
         <v>44763</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="40" t="s">
+      <c r="C35" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>44643</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="31">
         <f t="shared" si="4"/>
         <v>44793</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="49">
         <f t="shared" si="3"/>
         <v>44763</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="C36" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>44643</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="31">
         <v>44690</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="31">
         <f t="shared" si="4"/>
         <v>44793</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="49">
         <f t="shared" si="3"/>
         <v>44763</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12">
         <f>DATEDIF(F36, I36, "d")</f>
         <v>47</v>
       </c>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="40" t="s">
+      <c r="C37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>44643</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="31">
         <v>44689</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="31">
         <v>44694</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="31">
         <f t="shared" si="4"/>
         <v>44793</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="49">
         <f t="shared" si="3"/>
         <v>44763</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12">
         <f>DATEDIF(F37, I37, "d")</f>
         <v>46</v>
       </c>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
+      <c r="C38" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>44602</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="31">
         <v>44649</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="31">
         <v>44655</v>
       </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13">
+      <c r="K38" s="31"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12">
         <f>DATEDIF(F38, I38, "d")</f>
         <v>47</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="12">
         <f>DATEDIF(F38, J38, "d")</f>
         <v>53</v>
       </c>
-      <c r="P38" s="75" t="s">
+      <c r="P38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q38" s="13" t="s">
+      <c r="Q38" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:18" s="8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="40" t="s">
+      <c r="C39" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>44601</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="31">
         <v>44649</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="31">
         <v>44656</v>
       </c>
-      <c r="K39" s="39"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="13">
+      <c r="K39" s="31"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="12">
         <f>DATEDIF(F39, H39, "d")</f>
         <v>48</v>
       </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13">
+      <c r="N39" s="12"/>
+      <c r="O39" s="12">
         <f>DATEDIF(F39, J39, "d")</f>
         <v>55</v>
       </c>
-      <c r="P39" s="75" t="s">
+      <c r="P39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q39" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+    <row r="40" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="13" t="s">
+      <c r="C40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>44690</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <v>44691</v>
       </c>
-      <c r="I40" s="39"/>
-      <c r="K40" s="39">
+      <c r="I40" s="31"/>
+      <c r="K40" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L40" s="57">
+      <c r="L40" s="48">
         <f t="shared" ref="L40:L52" si="6">F40+120</f>
         <v>44810</v>
       </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="13" t="s">
+      <c r="C41" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>44690</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>44691</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="K41" s="39">
+      <c r="I41" s="31"/>
+      <c r="K41" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L41" s="58">
+      <c r="L41" s="49">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="13" t="s">
+      <c r="C42" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>44690</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <v>44691</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="K42" s="39">
+      <c r="I42" s="31"/>
+      <c r="K42" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="49">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="13" t="s">
+      <c r="C43" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>44690</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <v>44691</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="K43" s="39">
+      <c r="I43" s="31"/>
+      <c r="K43" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L43" s="58">
+      <c r="L43" s="49">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="13" t="s">
+      <c r="C44" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>44690</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <v>44691</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="K44" s="39">
+      <c r="I44" s="31"/>
+      <c r="K44" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L44" s="58">
+      <c r="L44" s="49">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="13" t="s">
+      <c r="C45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="15">
         <v>44690</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="15">
         <v>44691</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="K45" s="39">
+      <c r="I45" s="31"/>
+      <c r="K45" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L45" s="58">
+      <c r="L45" s="49">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="13" t="s">
+      <c r="C46" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>44690</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <v>44691</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="K46" s="39">
+      <c r="I46" s="31"/>
+      <c r="K46" s="31">
         <f t="shared" si="4"/>
         <v>44840</v>
       </c>
-      <c r="L46" s="58">
+      <c r="L46" s="49">
         <f t="shared" si="6"/>
         <v>44810</v>
       </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="s">
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="13" t="s">
+      <c r="C47" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="15">
         <v>44691</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="15">
         <v>44692</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="K47" s="39">
+      <c r="I47" s="31"/>
+      <c r="K47" s="31">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="L47" s="58">
+      <c r="L47" s="49">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-    </row>
-    <row r="48" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="13" t="s">
+      <c r="C48" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="15">
         <v>44691</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="15">
         <v>44692</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="K48" s="39">
+      <c r="I48" s="31"/>
+      <c r="K48" s="31">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="L48" s="58">
+      <c r="L48" s="49">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="13" t="s">
+      <c r="C49" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <v>44691</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <v>44692</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="K49" s="39">
+      <c r="I49" s="31"/>
+      <c r="K49" s="31">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="L49" s="58">
+      <c r="L49" s="49">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-    </row>
-    <row r="50" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="13" t="s">
+      <c r="C50" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>44691</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <v>44692</v>
       </c>
-      <c r="I50" s="39"/>
-      <c r="K50" s="39">
+      <c r="I50" s="31"/>
+      <c r="K50" s="31">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="L50" s="58">
+      <c r="L50" s="49">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-    </row>
-    <row r="51" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="13" t="s">
+      <c r="C51" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>44691</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>44692</v>
       </c>
-      <c r="I51" s="39"/>
-      <c r="K51" s="39">
+      <c r="I51" s="31"/>
+      <c r="K51" s="31">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="L51" s="58">
+      <c r="L51" s="49">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="1:18" s="9" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="13" t="s">
+      <c r="C52" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="15">
         <v>44691</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <v>44692</v>
       </c>
-      <c r="I52" s="39"/>
-      <c r="K52" s="39">
+      <c r="I52" s="31"/>
+      <c r="K52" s="31">
         <f t="shared" si="4"/>
         <v>44841</v>
       </c>
-      <c r="L52" s="58">
+      <c r="L52" s="49">
         <f t="shared" si="6"/>
         <v>44811</v>
       </c>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="1:18" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="1:18" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="65" t="s">
+      <c r="C53" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="53">
         <v>44602</v>
       </c>
-      <c r="G53" s="62" t="s">
+      <c r="G53" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="63">
+      <c r="I53" s="54">
         <v>44649</v>
       </c>
-      <c r="J53" s="63">
+      <c r="J53" s="54">
         <v>44653</v>
       </c>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65">
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55">
         <f>DATEDIF(F53, I53, "d")</f>
         <v>47</v>
       </c>
-      <c r="O53" s="65">
+      <c r="O53" s="55">
         <f>DATEDIF(F53, J53, "d")</f>
         <v>51</v>
       </c>
-      <c r="R53" s="60" t="s">
+      <c r="R53" s="51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+    <row r="54" spans="1:18" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65" t="s">
+      <c r="C54" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="53">
         <v>44602</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="63">
+      <c r="I54" s="54">
         <v>44649</v>
       </c>
-      <c r="J54" s="63">
+      <c r="J54" s="54">
         <v>44654</v>
       </c>
-      <c r="K54" s="63"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65">
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55">
         <f>DATEDIF(F54, I54, "d")</f>
         <v>47</v>
       </c>
-      <c r="O54" s="65">
+      <c r="O54" s="55">
         <f>DATEDIF(F54, J54, "d")</f>
         <v>52</v>
       </c>
-      <c r="R54" s="60" t="s">
+      <c r="R54" s="51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="60" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60" t="s">
+    <row r="55" spans="1:18" s="51" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="66" t="s">
+      <c r="C55" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="53">
         <v>44602</v>
       </c>
-      <c r="G55" s="62" t="s">
+      <c r="G55" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="I55" s="63">
+      <c r="I55" s="54">
         <v>44649</v>
       </c>
-      <c r="J55" s="63">
+      <c r="J55" s="54">
         <v>44654</v>
       </c>
-      <c r="K55" s="63"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65">
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55">
         <f>DATEDIF(F55, I55, "d")</f>
         <v>47</v>
       </c>
-      <c r="O55" s="65">
+      <c r="O55" s="55">
         <f>DATEDIF(F55, J55, "d")</f>
         <v>52</v>
       </c>
-      <c r="R55" s="60" t="s">
+      <c r="R55" s="51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="43"/>
-      <c r="M56" s="43">
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="35"/>
+      <c r="M56" s="35">
         <f>AVERAGE(M26:M55)</f>
         <v>48</v>
       </c>
-      <c r="N56" s="43">
+      <c r="N56" s="35">
         <f>AVERAGE(N26:N55)</f>
         <v>48.75</v>
       </c>
-      <c r="O56" s="43">
+      <c r="O56" s="35">
         <f>AVERAGE(O26:O55)</f>
         <v>72.142857142857139</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="46" t="s">
+    <row r="57" spans="1:18" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40">
         <f>MEDIAN(N26:N52)</f>
         <v>47</v>
       </c>
-      <c r="O57" s="48">
+      <c r="O57" s="40">
         <f>MEDIAN(O26:O52)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+    <row r="58" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-    </row>
-    <row r="59" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="19" t="s">
+      <c r="C59" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <v>44216</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21">
+      <c r="H59" s="19"/>
+      <c r="I59" s="20">
         <v>44299</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="20">
         <v>44299</v>
       </c>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20">
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19">
         <v>83</v>
       </c>
-      <c r="O59" s="31">
+      <c r="O59" s="23">
         <v>83</v>
       </c>
-      <c r="P59" s="17" t="s">
+      <c r="P59" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="R59" s="22" t="s">
+      <c r="R59" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="24" t="s">
+      <c r="C60" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="20">
         <v>44216</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="20">
         <v>44270</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26">
+      <c r="I60" s="19"/>
+      <c r="J60" s="20">
         <v>44285</v>
       </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="25">
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="19">
         <v>54</v>
       </c>
-      <c r="N60" s="25"/>
-      <c r="O60" s="31">
+      <c r="N60" s="19"/>
+      <c r="O60" s="23">
         <v>69</v>
       </c>
-      <c r="P60" s="23" t="s">
+      <c r="P60" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="R60" s="27" t="s">
+      <c r="R60" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="24" t="s">
+      <c r="C61" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="20">
         <v>44216</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20">
         <v>44299</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="20">
         <v>44299</v>
       </c>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25">
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19">
         <v>83</v>
       </c>
-      <c r="O61" s="31">
+      <c r="O61" s="23">
         <v>83</v>
       </c>
-      <c r="P61" s="23" t="s">
+      <c r="P61" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="R61" s="27" t="s">
+      <c r="R61" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="C62" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <v>44216</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="20">
         <v>44270</v>
       </c>
-      <c r="I62" s="20"/>
-      <c r="J62" s="26">
+      <c r="I62" s="19"/>
+      <c r="J62" s="20">
         <v>44281</v>
       </c>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="20">
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="19">
         <v>54</v>
       </c>
-      <c r="N62" s="20"/>
-      <c r="O62" s="31">
+      <c r="N62" s="19"/>
+      <c r="O62" s="23">
         <v>65</v>
       </c>
-      <c r="P62" s="17" t="s">
+      <c r="P62" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="R62" s="22" t="s">
+      <c r="R62" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+    <row r="63" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="19" t="s">
+      <c r="C63" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="20">
         <v>44216</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26">
+      <c r="H63" s="19"/>
+      <c r="I63" s="20">
         <v>44316</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="20">
         <v>44316</v>
       </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25">
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19">
         <v>100</v>
       </c>
-      <c r="O63" s="31">
+      <c r="O63" s="23">
         <v>100</v>
       </c>
-      <c r="P63" s="23" t="s">
+      <c r="P63" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="27" t="s">
+      <c r="Q63" s="19"/>
+      <c r="R63" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+    <row r="64" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="24" t="s">
+      <c r="C64" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="26">
+      <c r="F64" s="20">
         <v>44216</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="26">
+      <c r="H64" s="19"/>
+      <c r="I64" s="20">
         <v>44298</v>
       </c>
-      <c r="J64" s="26">
+      <c r="J64" s="20">
         <v>44298</v>
       </c>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25">
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19">
         <v>82</v>
       </c>
-      <c r="O64" s="31">
+      <c r="O64" s="23">
         <v>82</v>
       </c>
-      <c r="P64" s="23" t="s">
+      <c r="P64" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="R64" s="27" t="s">
+      <c r="R64" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+    <row r="65" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="24" t="s">
+      <c r="C65" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="26">
+      <c r="F65" s="20">
         <v>44220</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H65" s="26">
+      <c r="H65" s="20">
         <v>44273</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26">
+      <c r="I65" s="19"/>
+      <c r="J65" s="20">
         <v>44287</v>
       </c>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="25">
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="19">
         <v>53</v>
       </c>
-      <c r="N65" s="25"/>
-      <c r="O65" s="31">
+      <c r="N65" s="19"/>
+      <c r="O65" s="23">
         <v>67</v>
       </c>
-      <c r="P65" s="17" t="s">
+      <c r="P65" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="R65" s="27" t="s">
+      <c r="R65" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+    <row r="66" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="24" t="s">
+      <c r="C66" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <v>44246</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="20">
         <v>44342</v>
       </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="26">
+      <c r="I66" s="19"/>
+      <c r="J66" s="20">
         <v>44342</v>
       </c>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="20">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="19">
         <v>96</v>
       </c>
-      <c r="N66" s="20"/>
-      <c r="O66" s="31">
+      <c r="N66" s="19"/>
+      <c r="O66" s="23">
         <v>96</v>
       </c>
-      <c r="P66" s="17" t="s">
+      <c r="P66" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="R66" s="22" t="s">
+      <c r="R66" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+    <row r="67" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="C67" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="20">
         <v>44246</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="20">
         <v>44326</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="20">
         <v>44326</v>
       </c>
-      <c r="J67" s="26">
+      <c r="J67" s="20">
         <v>44333</v>
       </c>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="20">
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="19">
         <v>80</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="19">
         <v>80</v>
       </c>
-      <c r="O67" s="31">
+      <c r="O67" s="23">
         <v>87</v>
       </c>
-      <c r="P67" s="17" t="s">
+      <c r="P67" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="Q67" s="17" t="s">
+      <c r="Q67" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="R67" s="22" t="s">
+      <c r="R67" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+    <row r="68" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" s="24" t="s">
+      <c r="C68" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="20">
         <v>44246</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G68" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="20">
         <v>44299</v>
       </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="26">
+      <c r="I68" s="19"/>
+      <c r="J68" s="20">
         <v>44299</v>
       </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="20">
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="19">
         <v>53</v>
       </c>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20">
+      <c r="N68" s="19"/>
+      <c r="O68" s="19">
         <v>53</v>
       </c>
-      <c r="P68" s="17" t="s">
+      <c r="P68" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="R68" s="22" t="s">
+      <c r="R68" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
+    <row r="69" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="24" t="s">
+      <c r="C69" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="20">
         <v>44246</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21">
+      <c r="H69" s="20"/>
+      <c r="I69" s="20">
         <v>44321</v>
       </c>
-      <c r="J69" s="26">
+      <c r="J69" s="20">
         <v>44321</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20">
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19">
         <v>75</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O69" s="19">
         <v>75</v>
       </c>
-      <c r="P69" s="17" t="s">
+      <c r="P69" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="R69" s="22" t="s">
+      <c r="R69" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+    <row r="70" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="24" t="s">
+      <c r="C70" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="26">
+      <c r="F70" s="20">
         <v>44246</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="26">
+      <c r="H70" s="19"/>
+      <c r="I70" s="20">
         <v>44335</v>
       </c>
-      <c r="J70" s="26">
+      <c r="J70" s="20">
         <v>44335</v>
       </c>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25">
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19">
         <v>89</v>
       </c>
-      <c r="O70" s="25">
+      <c r="O70" s="19">
         <v>89</v>
       </c>
-      <c r="P70" s="23" t="s">
+      <c r="P70" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="R70" s="27" t="s">
+      <c r="R70" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+    <row r="71" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="C71" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="20">
         <v>44481</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H71" s="20">
         <v>44581</v>
       </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="26">
+      <c r="I71" s="19"/>
+      <c r="J71" s="20">
         <v>44591</v>
       </c>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="20">
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="19">
         <f>DATEDIF(F71, H71, "d")</f>
         <v>100</v>
       </c>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20">
+      <c r="N71" s="19"/>
+      <c r="O71" s="19">
         <f t="shared" ref="O71:O77" si="7">DATEDIF(F71, J71, "d")</f>
         <v>110</v>
       </c>
-      <c r="P71" s="17" t="s">
+      <c r="P71" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="R71" s="17" t="s">
+      <c r="R71" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+    <row r="72" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="C72" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="20">
         <v>44481</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="20">
         <v>44550</v>
       </c>
-      <c r="I72" s="20"/>
-      <c r="J72" s="26">
+      <c r="I72" s="19"/>
+      <c r="J72" s="20">
         <v>44557</v>
       </c>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="20">
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="19">
         <f>DATEDIF(F72, H72, "d")</f>
         <v>69</v>
       </c>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20">
+      <c r="N72" s="19"/>
+      <c r="O72" s="19">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="P72" s="17" t="s">
+      <c r="P72" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="R72" s="17" t="s">
+      <c r="R72" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+    <row r="73" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="C73" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="20">
         <v>44481</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G73" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="26">
+      <c r="I73" s="19"/>
+      <c r="J73" s="20">
         <v>44564</v>
       </c>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="20">
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="19">
         <f>DATEDIF(F73, H74, "d")</f>
         <v>70</v>
       </c>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20">
+      <c r="N73" s="19"/>
+      <c r="O73" s="19">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="P73" s="17" t="s">
+      <c r="P73" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="R73" s="17" t="s">
+      <c r="R73" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+    <row r="74" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="30" t="s">
+      <c r="C74" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="20">
         <v>44481</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="21">
+      <c r="H74" s="20">
         <v>44551</v>
       </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="26">
+      <c r="I74" s="19"/>
+      <c r="J74" s="20">
         <v>44564</v>
       </c>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20">
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="P74" s="17" t="s">
+      <c r="P74" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="R74" s="17" t="s">
+      <c r="R74" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+    <row r="75" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="30" t="s">
+      <c r="C75" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="20">
         <v>44481</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21">
+      <c r="H75" s="19"/>
+      <c r="I75" s="20">
         <v>44564</v>
       </c>
-      <c r="J75" s="26">
+      <c r="J75" s="20">
         <v>44564</v>
       </c>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20">
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19">
         <f>DATEDIF(F75, I75, "d")</f>
         <v>83</v>
       </c>
-      <c r="O75" s="20">
+      <c r="O75" s="19">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="P75" s="17" t="s">
+      <c r="P75" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="R75" s="17" t="s">
+      <c r="R75" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+    <row r="76" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="30" t="s">
+      <c r="C76" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="20">
         <v>44481</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G76" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="21">
+      <c r="H76" s="20">
         <v>44528</v>
       </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="26">
+      <c r="I76" s="19"/>
+      <c r="J76" s="20">
         <v>44545</v>
       </c>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="20">
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="19">
         <f>DATEDIF(F76, H76, "d")</f>
         <v>47</v>
       </c>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20">
+      <c r="N76" s="19"/>
+      <c r="O76" s="19">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="P76" s="17" t="s">
+      <c r="P76" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="R76" s="17" t="s">
+      <c r="R76" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+    <row r="77" spans="1:18" s="16" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="C77" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="20">
         <v>44481</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="20">
         <v>44534</v>
       </c>
-      <c r="I77" s="20"/>
-      <c r="J77" s="26">
+      <c r="I77" s="19"/>
+      <c r="J77" s="20">
         <v>44552</v>
       </c>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="20">
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="19">
         <f>DATEDIF(F77, H77, "d")</f>
         <v>53</v>
       </c>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20">
+      <c r="N77" s="19"/>
+      <c r="O77" s="19">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="P77" s="17" t="s">
+      <c r="P77" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="R77" s="17" t="s">
+      <c r="R77" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="33" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+    <row r="78" spans="1:18" s="25" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="35" t="s">
+      <c r="C78" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F78" s="37">
+      <c r="F78" s="29">
         <v>44481</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H78" s="37">
+      <c r="H78" s="29">
         <v>44550</v>
       </c>
-      <c r="I78" s="36"/>
-      <c r="J78" s="90">
+      <c r="I78" s="28"/>
+      <c r="J78" s="29">
         <v>44564</v>
       </c>
-      <c r="K78" s="90"/>
-      <c r="L78" s="90"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="R78" s="33" t="s">
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="R78" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
+    <row r="79" spans="1:18" s="25" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="35" t="s">
+      <c r="C79" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="37">
+      <c r="F79" s="29">
         <v>44481</v>
       </c>
-      <c r="G79" s="37" t="s">
+      <c r="G79" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H79" s="37">
+      <c r="H79" s="29">
         <v>44546</v>
       </c>
-      <c r="I79" s="36"/>
-      <c r="J79" s="90">
+      <c r="I79" s="28"/>
+      <c r="J79" s="29">
         <v>44557</v>
       </c>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="R79" s="33" t="s">
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="R79" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106" t="s">
+    <row r="80" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="89" t="s">
+      <c r="B80" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="M80" s="107">
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="M80" s="85">
         <f>AVERAGE(M59:M79)</f>
         <v>66.272727272727266</v>
       </c>
-      <c r="N80" s="107">
+      <c r="N80" s="85">
         <f>AVERAGE(N59:N79)</f>
         <v>84.375</v>
       </c>
-      <c r="O80" s="107">
+      <c r="O80" s="85">
         <f>AVERAGE(O59:O79)</f>
         <v>79.94736842105263</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="109" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="108" t="s">
+    <row r="81" spans="1:18" s="87" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="110"/>
-      <c r="E81" s="110"/>
-      <c r="F81" s="110"/>
-      <c r="G81" s="110"/>
-      <c r="M81" s="110">
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="88"/>
+      <c r="M81" s="88">
         <f>MEDIAN(M59:M77)</f>
         <v>54</v>
       </c>
-      <c r="N81" s="110">
+      <c r="N81" s="88">
         <f>MEDIAN(N59:N77)</f>
         <v>83</v>
       </c>
-      <c r="O81" s="110">
+      <c r="O81" s="88">
         <f>MEDIAN(O59:O77)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86" t="s">
+    <row r="82" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="80"/>
-    </row>
-    <row r="83" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="78" t="s">
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+    </row>
+    <row r="83" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80" t="s">
+      <c r="C83" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="81">
+      <c r="F83" s="67">
         <v>44511</v>
       </c>
-      <c r="G83" s="81">
+      <c r="G83" s="67">
         <v>44513</v>
       </c>
-      <c r="H83" s="80"/>
-      <c r="I83" s="81">
+      <c r="H83" s="66"/>
+      <c r="I83" s="67">
         <v>44558</v>
       </c>
-      <c r="J83" s="81">
+      <c r="J83" s="67">
         <v>44558</v>
       </c>
-      <c r="K83" s="81"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="80">
+      <c r="K83" s="67"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66">
         <f>DATEDIF(F83, I83, "d")</f>
         <v>47</v>
       </c>
-      <c r="O83" s="80">
+      <c r="O83" s="66">
         <f t="shared" ref="O83:O99" si="8">DATEDIF(F83, J83, "d")</f>
         <v>47</v>
       </c>
-      <c r="P83" s="78" t="s">
+      <c r="P83" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="R83" s="78" t="s">
+      <c r="R83" s="64" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="78" t="s">
+    <row r="84" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="79" t="s">
+      <c r="B84" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80" t="s">
+      <c r="C84" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="81">
+      <c r="F84" s="67">
         <v>44511</v>
       </c>
-      <c r="G84" s="81">
+      <c r="G84" s="67">
         <v>44513</v>
       </c>
-      <c r="H84" s="81">
+      <c r="H84" s="67">
         <v>44621</v>
       </c>
-      <c r="I84" s="80"/>
-      <c r="J84" s="81">
+      <c r="I84" s="66"/>
+      <c r="J84" s="67">
         <v>44627</v>
       </c>
-      <c r="K84" s="81"/>
-      <c r="M84" s="80">
+      <c r="K84" s="67"/>
+      <c r="M84" s="66">
         <f>DATEDIF(F84, H84, "d")</f>
         <v>110</v>
       </c>
-      <c r="N84" s="80"/>
-      <c r="O84" s="80">
+      <c r="N84" s="66"/>
+      <c r="O84" s="66">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="P84" s="78" t="s">
+      <c r="P84" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="R84" s="78" t="s">
+      <c r="R84" s="64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="78" t="s">
+    <row r="85" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80" t="s">
+      <c r="C85" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="81">
+      <c r="F85" s="67">
         <v>44511</v>
       </c>
-      <c r="G85" s="81">
+      <c r="G85" s="67">
         <v>44513</v>
       </c>
-      <c r="H85" s="81">
+      <c r="H85" s="67">
         <v>44567</v>
       </c>
-      <c r="I85" s="80"/>
-      <c r="J85" s="81">
+      <c r="I85" s="66"/>
+      <c r="J85" s="67">
         <v>44581</v>
       </c>
-      <c r="K85" s="81"/>
-      <c r="M85" s="80">
+      <c r="K85" s="67"/>
+      <c r="M85" s="66">
         <f>DATEDIF(F85, H85, "d")</f>
         <v>56</v>
       </c>
-      <c r="N85" s="80"/>
-      <c r="O85" s="80">
+      <c r="N85" s="66"/>
+      <c r="O85" s="66">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="P85" s="78" t="s">
+      <c r="P85" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="R85" s="78" t="s">
+      <c r="R85" s="64" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="78" t="s">
+    <row r="86" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="79" t="s">
+      <c r="B86" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80" t="s">
+      <c r="C86" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="81">
+      <c r="F86" s="67">
         <v>44511</v>
       </c>
-      <c r="G86" s="81">
+      <c r="G86" s="67">
         <v>44513</v>
       </c>
-      <c r="H86" s="81">
+      <c r="H86" s="67">
         <v>44630</v>
       </c>
-      <c r="I86" s="80"/>
-      <c r="J86" s="81">
+      <c r="I86" s="66"/>
+      <c r="J86" s="67">
         <v>44643</v>
       </c>
-      <c r="K86" s="81"/>
-      <c r="M86" s="80">
+      <c r="K86" s="67"/>
+      <c r="M86" s="66">
         <f>DATEDIF(F86, H86, "d")</f>
         <v>119</v>
       </c>
-      <c r="N86" s="80"/>
-      <c r="O86" s="80">
+      <c r="N86" s="66"/>
+      <c r="O86" s="66">
         <f t="shared" si="8"/>
         <v>132</v>
       </c>
-      <c r="P86" s="78" t="s">
+      <c r="P86" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="R86" s="78" t="s">
+      <c r="R86" s="64" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="78" t="s">
+    <row r="87" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80" t="s">
+      <c r="C87" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="81">
+      <c r="F87" s="67">
         <v>44511</v>
       </c>
-      <c r="G87" s="81">
+      <c r="G87" s="67">
         <v>44513</v>
       </c>
-      <c r="H87" s="81">
+      <c r="H87" s="67">
         <v>44615</v>
       </c>
-      <c r="I87" s="81">
+      <c r="I87" s="67">
         <v>44615</v>
       </c>
-      <c r="J87" s="81">
+      <c r="J87" s="67">
         <v>44620</v>
       </c>
-      <c r="K87" s="81"/>
-      <c r="M87" s="80">
+      <c r="K87" s="67"/>
+      <c r="M87" s="66">
         <f>DATEDIF(F87, H87, "d")</f>
         <v>104</v>
       </c>
-      <c r="N87" s="80">
+      <c r="N87" s="66">
         <f t="shared" ref="N87:N92" si="9">DATEDIF(F87, I87, "d")</f>
         <v>104</v>
       </c>
-      <c r="O87" s="80">
+      <c r="O87" s="66">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
-      <c r="P87" s="78" t="s">
+      <c r="P87" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="R87" s="78" t="s">
+      <c r="R87" s="64" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="78" t="s">
+    <row r="88" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="79" t="s">
+      <c r="B88" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C88" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80" t="s">
+      <c r="C88" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="81">
+      <c r="F88" s="67">
         <v>44511</v>
       </c>
-      <c r="G88" s="81">
+      <c r="G88" s="67">
         <v>44513</v>
       </c>
-      <c r="H88" s="80"/>
-      <c r="I88" s="81">
+      <c r="H88" s="66"/>
+      <c r="I88" s="67">
         <v>44565</v>
       </c>
-      <c r="J88" s="81">
+      <c r="J88" s="67">
         <v>44607</v>
       </c>
-      <c r="K88" s="81"/>
-      <c r="M88" s="80"/>
-      <c r="N88" s="80">
+      <c r="K88" s="67"/>
+      <c r="M88" s="66"/>
+      <c r="N88" s="66">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="O88" s="80">
+      <c r="O88" s="66">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="P88" s="78" t="s">
+      <c r="P88" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="R88" s="78" t="s">
+      <c r="R88" s="64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="78" t="s">
+    <row r="89" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="79" t="s">
+      <c r="B89" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80" t="s">
+      <c r="C89" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F89" s="81">
+      <c r="F89" s="67">
         <v>44511</v>
       </c>
-      <c r="G89" s="81">
+      <c r="G89" s="67">
         <v>44513</v>
       </c>
-      <c r="H89" s="80"/>
-      <c r="I89" s="81">
+      <c r="H89" s="66"/>
+      <c r="I89" s="67">
         <v>44586</v>
       </c>
-      <c r="J89" s="81">
+      <c r="J89" s="67">
         <v>44607</v>
       </c>
-      <c r="K89" s="81"/>
-      <c r="M89" s="80"/>
-      <c r="N89" s="80">
+      <c r="K89" s="67"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="O89" s="80">
+      <c r="O89" s="66">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="P89" s="78" t="s">
+      <c r="P89" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="R89" s="78" t="s">
+      <c r="R89" s="64" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="78" t="s">
+    <row r="90" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80" t="s">
+      <c r="C90" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="81">
+      <c r="F90" s="67">
         <v>44511</v>
       </c>
-      <c r="G90" s="81">
+      <c r="G90" s="67">
         <v>44513</v>
       </c>
-      <c r="H90" s="80"/>
-      <c r="I90" s="81">
+      <c r="H90" s="66"/>
+      <c r="I90" s="67">
         <v>44565</v>
       </c>
-      <c r="J90" s="81">
+      <c r="J90" s="67">
         <v>44574</v>
       </c>
-      <c r="K90" s="81"/>
-      <c r="M90" s="80"/>
-      <c r="N90" s="80">
+      <c r="K90" s="67"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="O90" s="80">
+      <c r="O90" s="66">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="P90" s="78" t="s">
+      <c r="P90" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="R90" s="78" t="s">
+      <c r="R90" s="64" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="78" t="s">
+    <row r="91" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="79" t="s">
+      <c r="B91" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80" t="s">
+      <c r="C91" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="81">
+      <c r="F91" s="67">
         <v>44248</v>
       </c>
-      <c r="G91" s="81">
+      <c r="G91" s="67">
         <v>44248</v>
       </c>
-      <c r="H91" s="81"/>
-      <c r="I91" s="81">
+      <c r="H91" s="67"/>
+      <c r="I91" s="67">
         <v>44326</v>
       </c>
-      <c r="J91" s="81">
+      <c r="J91" s="67">
         <v>44326</v>
       </c>
-      <c r="K91" s="81"/>
-      <c r="M91" s="80"/>
-      <c r="N91" s="80">
+      <c r="K91" s="67"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="66">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="O91" s="80">
+      <c r="O91" s="66">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="P91" s="78" t="s">
+      <c r="P91" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="R91" s="82" t="s">
+      <c r="R91" s="64" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="78" t="s">
+    <row r="92" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="79" t="s">
+      <c r="B92" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80" t="s">
+      <c r="C92" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="81">
+      <c r="F92" s="67">
         <v>44248</v>
       </c>
-      <c r="G92" s="81">
+      <c r="G92" s="67">
         <v>44248</v>
       </c>
-      <c r="H92" s="81"/>
-      <c r="I92" s="81">
+      <c r="H92" s="67"/>
+      <c r="I92" s="67">
         <v>44356</v>
       </c>
-      <c r="J92" s="81">
+      <c r="J92" s="67">
         <v>44363</v>
       </c>
-      <c r="K92" s="81"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="80">
+      <c r="K92" s="67"/>
+      <c r="M92" s="66"/>
+      <c r="N92" s="66">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="O92" s="80">
+      <c r="O92" s="66">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="P92" s="78" t="s">
+      <c r="P92" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="R92" s="82" t="s">
+      <c r="R92" s="64" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="78" t="s">
+    <row r="93" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C93" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80" t="s">
+      <c r="C93" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="81">
+      <c r="F93" s="67">
         <v>44248</v>
       </c>
-      <c r="G93" s="81">
+      <c r="G93" s="67">
         <v>44248</v>
       </c>
-      <c r="H93" s="81">
+      <c r="H93" s="67">
         <v>44299</v>
       </c>
-      <c r="I93" s="80"/>
-      <c r="J93" s="81">
+      <c r="I93" s="66"/>
+      <c r="J93" s="67">
         <v>44299</v>
       </c>
-      <c r="K93" s="81"/>
-      <c r="M93" s="80">
+      <c r="K93" s="67"/>
+      <c r="M93" s="66">
         <f>DATEDIF(F93, H93, "d")</f>
         <v>51</v>
       </c>
-      <c r="N93" s="80"/>
-      <c r="O93" s="80">
+      <c r="N93" s="66"/>
+      <c r="O93" s="66">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="P93" s="78" t="s">
+      <c r="P93" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="R93" s="82" t="s">
+      <c r="R93" s="64" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="78" t="s">
+    <row r="94" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C94" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" s="80"/>
-      <c r="E94" s="80" t="s">
+      <c r="C94" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="81">
+      <c r="F94" s="67">
         <v>44248</v>
       </c>
-      <c r="G94" s="81">
+      <c r="G94" s="67">
         <v>44248</v>
       </c>
-      <c r="H94" s="81"/>
-      <c r="I94" s="81">
+      <c r="H94" s="67"/>
+      <c r="I94" s="67">
         <v>44335</v>
       </c>
-      <c r="J94" s="81">
+      <c r="J94" s="67">
         <v>44335</v>
       </c>
-      <c r="K94" s="81"/>
-      <c r="M94" s="80"/>
-      <c r="N94" s="80">
+      <c r="K94" s="67"/>
+      <c r="M94" s="66"/>
+      <c r="N94" s="66">
         <f>DATEDIF(F94, I94, "d")</f>
         <v>87</v>
       </c>
-      <c r="O94" s="80">
+      <c r="O94" s="66">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
-      <c r="P94" s="78" t="s">
+      <c r="P94" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="R94" s="82" t="s">
+      <c r="R94" s="64" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="78" t="s">
+    <row r="95" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B95" s="79" t="s">
+      <c r="B95" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D95" s="80"/>
-      <c r="E95" s="80" t="s">
+      <c r="C95" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="81">
+      <c r="F95" s="67">
         <v>44248</v>
       </c>
-      <c r="G95" s="81">
+      <c r="G95" s="67">
         <v>44248</v>
       </c>
-      <c r="H95" s="81"/>
-      <c r="I95" s="81">
+      <c r="H95" s="67"/>
+      <c r="I95" s="67">
         <v>44316</v>
       </c>
-      <c r="J95" s="81">
+      <c r="J95" s="67">
         <v>44316</v>
       </c>
-      <c r="K95" s="81"/>
-      <c r="M95" s="80"/>
-      <c r="N95" s="80">
+      <c r="K95" s="67"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="66">
         <f>DATEDIF(F95, I95, "d")</f>
         <v>68</v>
       </c>
-      <c r="O95" s="80">
+      <c r="O95" s="66">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="P95" s="78" t="s">
+      <c r="P95" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="R95" s="82" t="s">
+      <c r="R95" s="64" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="78" t="s">
+    <row r="96" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B96" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80" t="s">
+      <c r="C96" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F96" s="81">
+      <c r="F96" s="67">
         <v>44248</v>
       </c>
-      <c r="G96" s="81">
+      <c r="G96" s="67">
         <v>44248</v>
       </c>
-      <c r="H96" s="81">
+      <c r="H96" s="67">
         <v>44299</v>
       </c>
-      <c r="I96" s="80"/>
-      <c r="J96" s="81">
+      <c r="I96" s="66"/>
+      <c r="J96" s="67">
         <v>44299</v>
       </c>
-      <c r="K96" s="81"/>
-      <c r="M96" s="80">
+      <c r="K96" s="67"/>
+      <c r="M96" s="66">
         <f>DATEDIF(F96, H96, "d")</f>
         <v>51</v>
       </c>
-      <c r="N96" s="80"/>
-      <c r="O96" s="80">
+      <c r="N96" s="66"/>
+      <c r="O96" s="66">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="P96" s="78" t="s">
+      <c r="P96" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="R96" s="82" t="s">
+      <c r="R96" s="64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="78" t="s">
+    <row r="97" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B97" s="79" t="s">
+      <c r="B97" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" s="80"/>
-      <c r="E97" s="80" t="s">
+      <c r="C97" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="81">
+      <c r="F97" s="67">
         <v>44248</v>
       </c>
-      <c r="G97" s="81">
+      <c r="G97" s="67">
         <v>44248</v>
       </c>
-      <c r="H97" s="83">
+      <c r="H97" s="67">
         <v>44299</v>
       </c>
-      <c r="I97" s="84"/>
-      <c r="J97" s="83">
+      <c r="I97" s="66"/>
+      <c r="J97" s="67">
         <v>44299</v>
       </c>
-      <c r="K97" s="83"/>
-      <c r="M97" s="80">
+      <c r="K97" s="67"/>
+      <c r="M97" s="66">
         <f>DATEDIF(F97, H97, "d")</f>
         <v>51</v>
       </c>
-      <c r="N97" s="80"/>
-      <c r="O97" s="80">
+      <c r="N97" s="66"/>
+      <c r="O97" s="66">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="P97" s="78" t="s">
+      <c r="P97" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="R97" s="85" t="s">
+      <c r="R97" s="64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="78" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="78" t="s">
+    <row r="98" spans="1:18" s="64" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C98" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80" t="s">
+      <c r="C98" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="81">
+      <c r="F98" s="67">
         <v>44216</v>
       </c>
-      <c r="G98" s="81">
+      <c r="G98" s="67">
         <v>44218</v>
       </c>
-      <c r="H98" s="81">
+      <c r="H98" s="67">
         <v>44270</v>
       </c>
-      <c r="I98" s="80"/>
-      <c r="J98" s="81">
+      <c r="I98" s="66"/>
+      <c r="J98" s="67">
         <v>44287</v>
       </c>
-      <c r="K98" s="81"/>
-      <c r="M98" s="80">
+      <c r="K98" s="67"/>
+      <c r="M98" s="66">
         <f>DATEDIF(F98, H98, "d")</f>
         <v>54</v>
       </c>
-      <c r="N98" s="80"/>
-      <c r="O98" s="80">
+      <c r="N98" s="66"/>
+      <c r="O98" s="66">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="P98" s="78" t="s">
+      <c r="P98" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="R98" s="82" t="s">
+      <c r="R98" s="64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="78" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="78" t="s">
+    <row r="99" spans="1:18" s="64" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="B99" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80" t="s">
+      <c r="C99" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="81">
+      <c r="F99" s="67">
         <v>44216</v>
       </c>
-      <c r="G99" s="81">
+      <c r="G99" s="67">
         <v>44218</v>
       </c>
-      <c r="H99" s="81">
+      <c r="H99" s="67">
         <v>44309</v>
       </c>
-      <c r="I99" s="80"/>
-      <c r="J99" s="81">
+      <c r="I99" s="66"/>
+      <c r="J99" s="67">
         <v>44326</v>
       </c>
-      <c r="K99" s="81"/>
-      <c r="M99" s="80">
+      <c r="K99" s="67"/>
+      <c r="M99" s="66">
         <f>DATEDIF(F99, H99, "d")</f>
         <v>93</v>
       </c>
-      <c r="N99" s="80"/>
-      <c r="O99" s="80">
+      <c r="N99" s="66"/>
+      <c r="O99" s="66">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="P99" s="78" t="s">
+      <c r="P99" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="R99" s="85" t="s">
+      <c r="R99" s="64" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="111" t="s">
+    <row r="100" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="112" t="s">
+      <c r="B100" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="113"/>
-      <c r="E100" s="113"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="113"/>
-      <c r="M100" s="113">
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="M100" s="91">
         <f>AVERAGE(M82:M99)</f>
         <v>76.555555555555557</v>
       </c>
-      <c r="N100" s="113">
+      <c r="N100" s="91">
         <f>AVERAGE(N83:N99)</f>
         <v>75</v>
       </c>
-      <c r="O100" s="113">
+      <c r="O100" s="91">
         <f>AVERAGE(O83:O99)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="114" t="s">
+    <row r="101" spans="1:18" s="93" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="D101" s="116"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="M101" s="116">
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94"/>
+      <c r="G101" s="94"/>
+      <c r="M101" s="94">
         <f>MEDIAN(M83:M99)</f>
         <v>56</v>
       </c>
-      <c r="N101" s="116">
+      <c r="N101" s="94">
         <f t="shared" ref="N101:O101" si="10">MEDIAN(N83:N99)</f>
         <v>75</v>
       </c>
-      <c r="O101" s="116">
+      <c r="O101" s="94">
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="118" t="s">
+    <row r="102" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="B102" s="119" t="s">
+      <c r="B102" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="120" t="s">
+      <c r="C102" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="122">
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="98">
         <v>44096</v>
       </c>
-      <c r="G102" s="122">
+      <c r="G102" s="98">
         <v>44096</v>
       </c>
-      <c r="J102" s="123">
+      <c r="J102" s="99">
         <v>44260</v>
       </c>
-      <c r="K102" s="123"/>
-      <c r="M102" s="121"/>
-      <c r="N102" s="121"/>
-      <c r="O102" s="121">
+      <c r="K102" s="99"/>
+      <c r="M102" s="97"/>
+      <c r="N102" s="97"/>
+      <c r="O102" s="97">
         <f t="shared" ref="O102:O132" si="11">DATEDIF(F102, J102, "d")</f>
         <v>164</v>
       </c>
-      <c r="R102" s="120" t="s">
+      <c r="R102" s="96" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="124" t="s">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="117" t="s">
+      <c r="B103" t="s">
         <v>236</v>
       </c>
-      <c r="C103" s="91" t="s">
+      <c r="C103" t="s">
         <v>237</v>
       </c>
-      <c r="D103" s="125"/>
-      <c r="E103" s="125"/>
-      <c r="F103" s="126">
+      <c r="F103" s="62">
         <v>44096</v>
       </c>
-      <c r="G103" s="126">
+      <c r="G103" s="62">
         <v>44096</v>
       </c>
-      <c r="J103" s="127">
+      <c r="J103" s="63">
         <v>44260</v>
       </c>
-      <c r="K103" s="127"/>
-      <c r="M103" s="125"/>
-      <c r="N103" s="125"/>
-      <c r="O103" s="125">
+      <c r="K103" s="63"/>
+      <c r="O103" s="9">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="R103" s="91" t="s">
+      <c r="R103" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="124" t="s">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="117" t="s">
+      <c r="B104" t="s">
         <v>236</v>
       </c>
-      <c r="C104" s="91" t="s">
+      <c r="C104" t="s">
         <v>237</v>
       </c>
-      <c r="D104" s="125"/>
-      <c r="E104" s="125"/>
-      <c r="F104" s="126">
+      <c r="F104" s="62">
         <v>44096</v>
       </c>
-      <c r="G104" s="126">
+      <c r="G104" s="62">
         <v>44096</v>
       </c>
-      <c r="J104" s="127">
+      <c r="J104" s="63">
         <v>44260</v>
       </c>
-      <c r="K104" s="127"/>
-      <c r="M104" s="125"/>
-      <c r="N104" s="125"/>
-      <c r="O104" s="125">
+      <c r="K104" s="63"/>
+      <c r="O104" s="9">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="R104" s="91" t="s">
+      <c r="R104" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="124" t="s">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="117" t="s">
+      <c r="B105" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="91" t="s">
+      <c r="C105" t="s">
         <v>237</v>
       </c>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
-      <c r="F105" s="126">
+      <c r="F105" s="62">
         <v>44096</v>
       </c>
-      <c r="G105" s="126">
+      <c r="G105" s="62">
         <v>44096</v>
       </c>
-      <c r="J105" s="127">
+      <c r="J105" s="63">
         <v>44260</v>
       </c>
-      <c r="K105" s="127"/>
-      <c r="M105" s="125"/>
-      <c r="N105" s="125"/>
-      <c r="O105" s="125">
+      <c r="K105" s="63"/>
+      <c r="O105" s="9">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="R105" s="91" t="s">
+      <c r="R105" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="124" t="s">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="117" t="s">
+      <c r="B106" t="s">
         <v>236</v>
       </c>
-      <c r="C106" s="91" t="s">
+      <c r="C106" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="125"/>
-      <c r="E106" s="125"/>
-      <c r="F106" s="126">
+      <c r="F106" s="62">
         <v>44096</v>
       </c>
-      <c r="G106" s="126">
+      <c r="G106" s="62">
         <v>44096</v>
       </c>
-      <c r="J106" s="127">
+      <c r="J106" s="63">
         <v>44260</v>
       </c>
-      <c r="K106" s="127"/>
-      <c r="M106" s="125"/>
-      <c r="N106" s="125"/>
-      <c r="O106" s="125">
+      <c r="K106" s="63"/>
+      <c r="O106" s="9">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="R106" s="91" t="s">
+      <c r="R106" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="124" t="s">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="117" t="s">
+      <c r="B107" t="s">
         <v>236</v>
       </c>
-      <c r="C107" s="91" t="s">
+      <c r="C107" t="s">
         <v>237</v>
       </c>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="126">
+      <c r="F107" s="62">
         <v>44123</v>
       </c>
-      <c r="G107" s="126">
+      <c r="G107" s="62">
         <v>44123</v>
       </c>
-      <c r="J107" s="127">
+      <c r="J107" s="63">
         <v>44273</v>
       </c>
-      <c r="K107" s="127"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="125"/>
-      <c r="O107" s="125">
+      <c r="K107" s="63"/>
+      <c r="O107" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R107" s="91" t="s">
+      <c r="R107" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="124" t="s">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="117" t="s">
+      <c r="B108" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="91" t="s">
+      <c r="C108" t="s">
         <v>237</v>
       </c>
-      <c r="D108" s="125"/>
-      <c r="E108" s="125"/>
-      <c r="F108" s="126">
+      <c r="F108" s="62">
         <v>44123</v>
       </c>
-      <c r="G108" s="126">
+      <c r="G108" s="62">
         <v>44123</v>
       </c>
-      <c r="J108" s="127">
+      <c r="J108" s="63">
         <v>44273</v>
       </c>
-      <c r="K108" s="127"/>
-      <c r="M108" s="125"/>
-      <c r="N108" s="125"/>
-      <c r="O108" s="125">
+      <c r="K108" s="63"/>
+      <c r="O108" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R108" s="91" t="s">
+      <c r="R108" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="124" t="s">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="117" t="s">
+      <c r="B109" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="91" t="s">
+      <c r="C109" t="s">
         <v>237</v>
       </c>
-      <c r="D109" s="125"/>
-      <c r="E109" s="125"/>
-      <c r="F109" s="126">
+      <c r="F109" s="62">
         <v>44123</v>
       </c>
-      <c r="G109" s="126">
+      <c r="G109" s="62">
         <v>44123</v>
       </c>
-      <c r="J109" s="127">
+      <c r="J109" s="63">
         <v>44273</v>
       </c>
-      <c r="K109" s="127"/>
-      <c r="M109" s="125"/>
-      <c r="N109" s="125"/>
-      <c r="O109" s="125">
+      <c r="K109" s="63"/>
+      <c r="O109" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R109" s="91" t="s">
+      <c r="R109" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="124" t="s">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="117" t="s">
+      <c r="B110" t="s">
         <v>236</v>
       </c>
-      <c r="C110" s="91" t="s">
+      <c r="C110" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="125"/>
-      <c r="E110" s="125"/>
-      <c r="F110" s="126">
+      <c r="F110" s="62">
         <v>44123</v>
       </c>
-      <c r="G110" s="126">
+      <c r="G110" s="62">
         <v>44123</v>
       </c>
-      <c r="J110" s="127">
+      <c r="J110" s="63">
         <v>44273</v>
       </c>
-      <c r="K110" s="127"/>
-      <c r="M110" s="125"/>
-      <c r="N110" s="125"/>
-      <c r="O110" s="125">
+      <c r="K110" s="63"/>
+      <c r="O110" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R110" s="91" t="s">
+      <c r="R110" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="124" t="s">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="B111" s="117" t="s">
+      <c r="B111" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="C111" t="s">
         <v>237</v>
       </c>
-      <c r="D111" s="125"/>
-      <c r="E111" s="125"/>
-      <c r="F111" s="126">
+      <c r="F111" s="62">
         <v>44123</v>
       </c>
-      <c r="G111" s="126">
+      <c r="G111" s="62">
         <v>44123</v>
       </c>
-      <c r="J111" s="127">
+      <c r="J111" s="63">
         <v>44273</v>
       </c>
-      <c r="K111" s="127"/>
-      <c r="M111" s="125"/>
-      <c r="N111" s="125"/>
-      <c r="O111" s="125">
+      <c r="K111" s="63"/>
+      <c r="O111" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R111" s="91" t="s">
+      <c r="R111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="124" t="s">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="B112" s="117" t="s">
+      <c r="B112" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="91" t="s">
+      <c r="C112" t="s">
         <v>237</v>
       </c>
-      <c r="D112" s="125"/>
-      <c r="E112" s="125"/>
-      <c r="F112" s="126">
+      <c r="F112" s="62">
         <v>44123</v>
       </c>
-      <c r="G112" s="126">
+      <c r="G112" s="62">
         <v>44123</v>
       </c>
-      <c r="J112" s="127">
+      <c r="J112" s="63">
         <v>44273</v>
       </c>
-      <c r="K112" s="127"/>
-      <c r="M112" s="125"/>
-      <c r="N112" s="125"/>
-      <c r="O112" s="125">
+      <c r="K112" s="63"/>
+      <c r="O112" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R112" s="91" t="s">
+      <c r="R112" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="124" t="s">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="117" t="s">
+      <c r="B113" t="s">
         <v>236</v>
       </c>
-      <c r="C113" s="91" t="s">
+      <c r="C113" t="s">
         <v>237</v>
       </c>
-      <c r="D113" s="125"/>
-      <c r="E113" s="125"/>
-      <c r="F113" s="126">
+      <c r="F113" s="62">
         <v>44123</v>
       </c>
-      <c r="G113" s="126">
+      <c r="G113" s="62">
         <v>44123</v>
       </c>
-      <c r="J113" s="127">
+      <c r="J113" s="63">
         <v>44273</v>
       </c>
-      <c r="K113" s="127"/>
-      <c r="M113" s="125"/>
-      <c r="N113" s="125"/>
-      <c r="O113" s="125">
+      <c r="K113" s="63"/>
+      <c r="O113" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R113" s="91" t="s">
+      <c r="R113" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="124" t="s">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="117" t="s">
+      <c r="B114" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="91" t="s">
+      <c r="C114" t="s">
         <v>237</v>
       </c>
-      <c r="D114" s="125"/>
-      <c r="E114" s="125"/>
-      <c r="F114" s="126">
+      <c r="F114" s="62">
         <v>44140</v>
       </c>
-      <c r="G114" s="126">
+      <c r="G114" s="62">
         <v>44140</v>
       </c>
-      <c r="J114" s="127">
+      <c r="J114" s="63">
         <v>44291</v>
       </c>
-      <c r="K114" s="127"/>
-      <c r="M114" s="125"/>
-      <c r="N114" s="125"/>
-      <c r="O114" s="125">
+      <c r="K114" s="63"/>
+      <c r="O114" s="9">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="R114" s="91" t="s">
+      <c r="R114" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="124" t="s">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="117" t="s">
+      <c r="B115" t="s">
         <v>236</v>
       </c>
-      <c r="C115" s="91" t="s">
+      <c r="C115" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="125"/>
-      <c r="E115" s="125"/>
-      <c r="F115" s="126">
+      <c r="F115" s="62">
         <v>44140</v>
       </c>
-      <c r="G115" s="126">
+      <c r="G115" s="62">
         <v>44140</v>
       </c>
-      <c r="J115" s="127">
+      <c r="J115" s="63">
         <v>44291</v>
       </c>
-      <c r="K115" s="127"/>
-      <c r="M115" s="125"/>
-      <c r="N115" s="125"/>
-      <c r="O115" s="125">
+      <c r="K115" s="63"/>
+      <c r="O115" s="9">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="R115" s="91" t="s">
+      <c r="R115" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="124" t="s">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="B116" s="117" t="s">
+      <c r="B116" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="91" t="s">
+      <c r="C116" t="s">
         <v>237</v>
       </c>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
-      <c r="F116" s="126">
+      <c r="F116" s="62">
         <v>44140</v>
       </c>
-      <c r="G116" s="126">
+      <c r="G116" s="62">
         <v>44140</v>
       </c>
-      <c r="J116" s="127">
+      <c r="J116" s="63">
         <v>44291</v>
       </c>
-      <c r="K116" s="127"/>
-      <c r="M116" s="125"/>
-      <c r="N116" s="125"/>
-      <c r="O116" s="125">
+      <c r="K116" s="63"/>
+      <c r="O116" s="9">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="R116" s="91" t="s">
+      <c r="R116" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="124" t="s">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="B117" s="117" t="s">
+      <c r="B117" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="91" t="s">
+      <c r="C117" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
-      <c r="F117" s="126">
+      <c r="F117" s="62">
         <v>44140</v>
       </c>
-      <c r="G117" s="126">
+      <c r="G117" s="62">
         <v>44140</v>
       </c>
-      <c r="J117" s="127">
+      <c r="J117" s="63">
         <v>44291</v>
       </c>
-      <c r="K117" s="127"/>
-      <c r="M117" s="125"/>
-      <c r="N117" s="125"/>
-      <c r="O117" s="125">
+      <c r="K117" s="63"/>
+      <c r="O117" s="9">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="R117" s="91" t="s">
+      <c r="R117" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="124" t="s">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="B118" s="117" t="s">
+      <c r="B118" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="91" t="s">
+      <c r="C118" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="125"/>
-      <c r="E118" s="125"/>
-      <c r="F118" s="126">
+      <c r="F118" s="62">
         <v>44140</v>
       </c>
-      <c r="G118" s="126">
+      <c r="G118" s="62">
         <v>44140</v>
       </c>
-      <c r="J118" s="127">
+      <c r="J118" s="63">
         <v>44291</v>
       </c>
-      <c r="K118" s="127"/>
-      <c r="M118" s="125"/>
-      <c r="N118" s="125"/>
-      <c r="O118" s="125">
+      <c r="K118" s="63"/>
+      <c r="O118" s="9">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="R118" s="91" t="s">
+      <c r="R118" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="124" t="s">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="117" t="s">
+      <c r="B119" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="91" t="s">
+      <c r="C119" t="s">
         <v>237</v>
       </c>
-      <c r="D119" s="125"/>
-      <c r="E119" s="125"/>
-      <c r="F119" s="126">
+      <c r="F119" s="62">
         <v>44140</v>
       </c>
-      <c r="G119" s="126">
+      <c r="G119" s="62">
         <v>44140</v>
       </c>
-      <c r="J119" s="127">
+      <c r="J119" s="63">
         <v>44291</v>
       </c>
-      <c r="K119" s="127"/>
-      <c r="M119" s="125"/>
-      <c r="N119" s="125"/>
-      <c r="O119" s="125">
+      <c r="K119" s="63"/>
+      <c r="O119" s="9">
         <f t="shared" si="11"/>
         <v>151</v>
       </c>
-      <c r="R119" s="91" t="s">
+      <c r="R119" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="124" t="s">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="B120" s="117" t="s">
+      <c r="B120" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="91" t="s">
+      <c r="C120" t="s">
         <v>237</v>
       </c>
-      <c r="D120" s="125"/>
-      <c r="E120" s="125"/>
-      <c r="F120" s="126">
+      <c r="F120" s="62">
         <v>44142</v>
       </c>
-      <c r="G120" s="126">
+      <c r="G120" s="62">
         <v>44144</v>
       </c>
-      <c r="J120" s="127">
+      <c r="J120" s="63">
         <v>44292</v>
       </c>
-      <c r="K120" s="127"/>
-      <c r="M120" s="125"/>
-      <c r="N120" s="125"/>
-      <c r="O120" s="125">
+      <c r="K120" s="63"/>
+      <c r="O120" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R120" s="91" t="s">
+      <c r="R120" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="124" t="s">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="B121" s="117" t="s">
+      <c r="B121" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="91" t="s">
+      <c r="C121" t="s">
         <v>237</v>
       </c>
-      <c r="D121" s="125"/>
-      <c r="E121" s="125"/>
-      <c r="F121" s="126">
+      <c r="F121" s="62">
         <v>44142</v>
       </c>
-      <c r="G121" s="126">
+      <c r="G121" s="62">
         <v>44144</v>
       </c>
-      <c r="J121" s="127">
+      <c r="J121" s="63">
         <v>44292</v>
       </c>
-      <c r="K121" s="127"/>
-      <c r="M121" s="125"/>
-      <c r="N121" s="125"/>
-      <c r="O121" s="125">
+      <c r="K121" s="63"/>
+      <c r="O121" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R121" s="91" t="s">
+      <c r="R121" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="124" t="s">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="B122" s="117" t="s">
+      <c r="B122" t="s">
         <v>236</v>
       </c>
-      <c r="C122" s="91" t="s">
+      <c r="C122" t="s">
         <v>237</v>
       </c>
-      <c r="D122" s="125"/>
-      <c r="E122" s="125"/>
-      <c r="F122" s="126">
+      <c r="F122" s="62">
         <v>44142</v>
       </c>
-      <c r="G122" s="126">
+      <c r="G122" s="62">
         <v>44144</v>
       </c>
-      <c r="J122" s="127">
+      <c r="J122" s="63">
         <v>44292</v>
       </c>
-      <c r="K122" s="127"/>
-      <c r="M122" s="125"/>
-      <c r="N122" s="125"/>
-      <c r="O122" s="125">
+      <c r="K122" s="63"/>
+      <c r="O122" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R122" s="91" t="s">
+      <c r="R122" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="124" t="s">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="B123" s="117" t="s">
+      <c r="B123" t="s">
         <v>236</v>
       </c>
-      <c r="C123" s="91" t="s">
+      <c r="C123" t="s">
         <v>237</v>
       </c>
-      <c r="D123" s="125"/>
-      <c r="E123" s="125"/>
-      <c r="F123" s="126">
+      <c r="F123" s="62">
         <v>44142</v>
       </c>
-      <c r="G123" s="126">
+      <c r="G123" s="62">
         <v>44144</v>
       </c>
-      <c r="J123" s="127">
+      <c r="J123" s="63">
         <v>44292</v>
       </c>
-      <c r="K123" s="127"/>
-      <c r="M123" s="125"/>
-      <c r="N123" s="125"/>
-      <c r="O123" s="125">
+      <c r="K123" s="63"/>
+      <c r="O123" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R123" s="91" t="s">
+      <c r="R123" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="124" t="s">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="117" t="s">
+      <c r="B124" t="s">
         <v>236</v>
       </c>
-      <c r="C124" s="91" t="s">
+      <c r="C124" t="s">
         <v>237</v>
       </c>
-      <c r="D124" s="125"/>
-      <c r="E124" s="125"/>
-      <c r="F124" s="126">
+      <c r="F124" s="62">
         <v>44142</v>
       </c>
-      <c r="G124" s="126">
+      <c r="G124" s="62">
         <v>44144</v>
       </c>
-      <c r="J124" s="127">
+      <c r="J124" s="63">
         <v>44292</v>
       </c>
-      <c r="K124" s="127"/>
-      <c r="M124" s="125"/>
-      <c r="N124" s="125"/>
-      <c r="O124" s="125">
+      <c r="K124" s="63"/>
+      <c r="O124" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R124" s="91" t="s">
+      <c r="R124" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="124" t="s">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="B125" s="117" t="s">
+      <c r="B125" t="s">
         <v>236</v>
       </c>
-      <c r="C125" s="91" t="s">
+      <c r="C125" t="s">
         <v>237</v>
       </c>
-      <c r="D125" s="125"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="126">
+      <c r="F125" s="62">
         <v>44142</v>
       </c>
-      <c r="G125" s="126">
+      <c r="G125" s="62">
         <v>44144</v>
       </c>
-      <c r="J125" s="127">
+      <c r="J125" s="63">
         <v>44292</v>
       </c>
-      <c r="K125" s="127"/>
-      <c r="M125" s="125"/>
-      <c r="N125" s="125"/>
-      <c r="O125" s="125">
+      <c r="K125" s="63"/>
+      <c r="O125" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R125" s="91" t="s">
+      <c r="R125" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="124" t="s">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="B126" s="117" t="s">
+      <c r="B126" t="s">
         <v>236</v>
       </c>
-      <c r="C126" s="91" t="s">
+      <c r="C126" t="s">
         <v>237</v>
       </c>
-      <c r="D126" s="125"/>
-      <c r="E126" s="125"/>
-      <c r="F126" s="126">
+      <c r="F126" s="62">
         <v>44142</v>
       </c>
-      <c r="G126" s="126">
+      <c r="G126" s="62">
         <v>44144</v>
       </c>
-      <c r="J126" s="127">
+      <c r="J126" s="63">
         <v>44292</v>
       </c>
-      <c r="K126" s="127"/>
-      <c r="M126" s="125"/>
-      <c r="N126" s="125"/>
-      <c r="O126" s="125">
+      <c r="K126" s="63"/>
+      <c r="O126" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R126" s="91" t="s">
+      <c r="R126" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="124" t="s">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="B127" s="117" t="s">
+      <c r="B127" t="s">
         <v>236</v>
       </c>
-      <c r="C127" s="91" t="s">
+      <c r="C127" t="s">
         <v>237</v>
       </c>
-      <c r="D127" s="125"/>
-      <c r="E127" s="125"/>
-      <c r="F127" s="126">
+      <c r="F127" s="62">
         <v>44145</v>
       </c>
-      <c r="G127" s="126">
+      <c r="G127" s="62">
         <v>44146</v>
       </c>
-      <c r="J127" s="127">
+      <c r="J127" s="63">
         <v>44295</v>
       </c>
-      <c r="K127" s="127"/>
-      <c r="M127" s="125"/>
-      <c r="N127" s="125"/>
-      <c r="O127" s="125">
+      <c r="K127" s="63"/>
+      <c r="O127" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R127" s="91" t="s">
+      <c r="R127" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="124" t="s">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="B128" s="117" t="s">
+      <c r="B128" t="s">
         <v>236</v>
       </c>
-      <c r="C128" s="91" t="s">
+      <c r="C128" t="s">
         <v>237</v>
       </c>
-      <c r="D128" s="125"/>
-      <c r="E128" s="125"/>
-      <c r="F128" s="126">
+      <c r="F128" s="62">
         <v>44145</v>
       </c>
-      <c r="G128" s="126">
+      <c r="G128" s="62">
         <v>44146</v>
       </c>
-      <c r="J128" s="127">
+      <c r="J128" s="63">
         <v>44295</v>
       </c>
-      <c r="K128" s="127"/>
-      <c r="M128" s="125"/>
-      <c r="N128" s="125"/>
-      <c r="O128" s="125">
+      <c r="K128" s="63"/>
+      <c r="O128" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R128" s="91" t="s">
+      <c r="R128" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="124" t="s">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="117" t="s">
+      <c r="B129" t="s">
         <v>236</v>
       </c>
-      <c r="C129" s="91" t="s">
+      <c r="C129" t="s">
         <v>237</v>
       </c>
-      <c r="D129" s="125"/>
-      <c r="E129" s="125"/>
-      <c r="F129" s="126">
+      <c r="F129" s="62">
         <v>44145</v>
       </c>
-      <c r="G129" s="126">
+      <c r="G129" s="62">
         <v>44146</v>
       </c>
-      <c r="J129" s="127">
+      <c r="J129" s="63">
         <v>44295</v>
       </c>
-      <c r="K129" s="127"/>
-      <c r="M129" s="125"/>
-      <c r="N129" s="125"/>
-      <c r="O129" s="125">
+      <c r="K129" s="63"/>
+      <c r="O129" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R129" s="91" t="s">
+      <c r="R129" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="130" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="124" t="s">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="117" t="s">
+      <c r="B130" t="s">
         <v>236</v>
       </c>
-      <c r="C130" s="91" t="s">
+      <c r="C130" t="s">
         <v>237</v>
       </c>
-      <c r="D130" s="125"/>
-      <c r="E130" s="125"/>
-      <c r="F130" s="126">
+      <c r="F130" s="62">
         <v>44145</v>
       </c>
-      <c r="G130" s="126">
+      <c r="G130" s="62">
         <v>44146</v>
       </c>
-      <c r="J130" s="127">
+      <c r="J130" s="63">
         <v>44295</v>
       </c>
-      <c r="K130" s="127"/>
-      <c r="M130" s="125"/>
-      <c r="N130" s="125"/>
-      <c r="O130" s="125">
+      <c r="K130" s="63"/>
+      <c r="O130" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R130" s="91" t="s">
+      <c r="R130" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:18" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="124" t="s">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="117" t="s">
+      <c r="B131" t="s">
         <v>236</v>
       </c>
-      <c r="C131" s="91" t="s">
+      <c r="C131" t="s">
         <v>237</v>
       </c>
-      <c r="D131" s="125"/>
-      <c r="E131" s="125"/>
-      <c r="F131" s="126">
+      <c r="F131" s="62">
         <v>44145</v>
       </c>
-      <c r="G131" s="126">
+      <c r="G131" s="62">
         <v>44146</v>
       </c>
-      <c r="J131" s="127">
+      <c r="J131" s="63">
         <v>44295</v>
       </c>
-      <c r="K131" s="127"/>
-      <c r="M131" s="125"/>
-      <c r="N131" s="125"/>
-      <c r="O131" s="125">
+      <c r="K131" s="63"/>
+      <c r="O131" s="9">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R131" s="91" t="s">
+      <c r="R131" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:18" s="129" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="128" t="s">
+    <row r="132" spans="1:18" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="B132" s="129" t="s">
+      <c r="B132" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="C132" s="130" t="s">
+      <c r="C132" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="D132" s="131"/>
-      <c r="E132" s="131"/>
-      <c r="F132" s="132">
+      <c r="D132" s="103"/>
+      <c r="E132" s="103"/>
+      <c r="F132" s="104">
         <v>44145</v>
       </c>
-      <c r="G132" s="132">
+      <c r="G132" s="104">
         <v>44146</v>
       </c>
-      <c r="J132" s="133">
+      <c r="J132" s="105">
         <v>44295</v>
       </c>
-      <c r="K132" s="133"/>
-      <c r="M132" s="131"/>
-      <c r="N132" s="131"/>
-      <c r="O132" s="131">
+      <c r="K132" s="105"/>
+      <c r="M132" s="103"/>
+      <c r="N132" s="103"/>
+      <c r="O132" s="103">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="R132" s="130" t="s">
+      <c r="R132" s="102" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="137" t="s">
+    <row r="133" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="120" t="s">
+      <c r="B133" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="D133" s="138"/>
-      <c r="E133" s="138"/>
-      <c r="F133" s="138"/>
-      <c r="G133" s="138"/>
-      <c r="M133" s="138"/>
-      <c r="N133" s="138"/>
-      <c r="O133" s="138">
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="97"/>
+      <c r="M133" s="97"/>
+      <c r="N133" s="97"/>
+      <c r="O133" s="97">
         <f>AVERAGE(O116:O132)</f>
         <v>150.23529411764707</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="130" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="139" t="s">
+    <row r="134" spans="1:18" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D134" s="140"/>
-      <c r="E134" s="140"/>
-      <c r="F134" s="140"/>
-      <c r="G134" s="140"/>
-      <c r="M134" s="140"/>
-      <c r="N134" s="140"/>
-      <c r="O134" s="140">
+      <c r="D134" s="103"/>
+      <c r="E134" s="103"/>
+      <c r="F134" s="103"/>
+      <c r="G134" s="103"/>
+      <c r="M134" s="103"/>
+      <c r="N134" s="103"/>
+      <c r="O134" s="103">
         <f t="shared" ref="O134" si="12">MEDIAN(O116:O132)</f>
         <v>150</v>
       </c>
@@ -6859,24 +6695,24 @@
       <c r="B135" t="s">
         <v>261</v>
       </c>
-      <c r="C135" s="91" t="s">
+      <c r="C135" t="s">
         <v>237</v>
       </c>
-      <c r="F135" s="76">
+      <c r="F135" s="62">
         <v>44194</v>
       </c>
-      <c r="G135" s="76">
+      <c r="G135" s="62">
         <v>44194</v>
       </c>
-      <c r="J135" s="77">
+      <c r="J135" s="63">
         <v>44344</v>
       </c>
-      <c r="K135" s="77"/>
-      <c r="O135" s="10">
+      <c r="K135" s="63"/>
+      <c r="O135" s="9">
         <f t="shared" ref="O135:O165" si="13">DATEDIF(F135, J135, "d")</f>
         <v>150</v>
       </c>
-      <c r="R135" s="91" t="s">
+      <c r="R135" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6887,24 +6723,24 @@
       <c r="B136" t="s">
         <v>261</v>
       </c>
-      <c r="C136" s="91" t="s">
+      <c r="C136" t="s">
         <v>237</v>
       </c>
-      <c r="F136" s="76">
+      <c r="F136" s="62">
         <v>44194</v>
       </c>
-      <c r="G136" s="76">
+      <c r="G136" s="62">
         <v>44194</v>
       </c>
-      <c r="J136" s="77">
+      <c r="J136" s="63">
         <v>44344</v>
       </c>
-      <c r="K136" s="77"/>
-      <c r="O136" s="10">
+      <c r="K136" s="63"/>
+      <c r="O136" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R136" s="91" t="s">
+      <c r="R136" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6915,24 +6751,24 @@
       <c r="B137" t="s">
         <v>261</v>
       </c>
-      <c r="C137" s="91" t="s">
+      <c r="C137" t="s">
         <v>237</v>
       </c>
-      <c r="F137" s="76">
+      <c r="F137" s="62">
         <v>44194</v>
       </c>
-      <c r="G137" s="76">
+      <c r="G137" s="62">
         <v>44194</v>
       </c>
-      <c r="J137" s="77">
+      <c r="J137" s="63">
         <v>44344</v>
       </c>
-      <c r="K137" s="77"/>
-      <c r="O137" s="10">
+      <c r="K137" s="63"/>
+      <c r="O137" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R137" s="91" t="s">
+      <c r="R137" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6943,24 +6779,24 @@
       <c r="B138" t="s">
         <v>261</v>
       </c>
-      <c r="C138" s="91" t="s">
+      <c r="C138" t="s">
         <v>237</v>
       </c>
-      <c r="F138" s="76">
+      <c r="F138" s="62">
         <v>44194</v>
       </c>
-      <c r="G138" s="76">
+      <c r="G138" s="62">
         <v>44194</v>
       </c>
-      <c r="J138" s="77">
+      <c r="J138" s="63">
         <v>44344</v>
       </c>
-      <c r="K138" s="77"/>
-      <c r="O138" s="10">
+      <c r="K138" s="63"/>
+      <c r="O138" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R138" s="91" t="s">
+      <c r="R138" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6971,80 +6807,80 @@
       <c r="B139" t="s">
         <v>261</v>
       </c>
-      <c r="C139" s="91" t="s">
+      <c r="C139" t="s">
         <v>237</v>
       </c>
-      <c r="F139" s="76">
+      <c r="F139" s="62">
         <v>44194</v>
       </c>
-      <c r="G139" s="76">
+      <c r="G139" s="62">
         <v>44194</v>
       </c>
-      <c r="J139" s="77">
+      <c r="J139" s="63">
         <v>44344</v>
       </c>
-      <c r="K139" s="77"/>
-      <c r="O139" s="10">
+      <c r="K139" s="63"/>
+      <c r="O139" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R139" s="91" t="s">
+      <c r="R139" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="117" t="s">
+      <c r="A140" t="s">
         <v>260</v>
       </c>
       <c r="B140" t="s">
         <v>261</v>
       </c>
-      <c r="C140" s="91" t="s">
+      <c r="C140" t="s">
         <v>237</v>
       </c>
-      <c r="F140" s="76">
+      <c r="F140" s="62">
         <v>44194</v>
       </c>
-      <c r="G140" s="76">
+      <c r="G140" s="62">
         <v>44194</v>
       </c>
-      <c r="J140" s="77">
+      <c r="J140" s="63">
         <v>44344</v>
       </c>
-      <c r="K140" s="77"/>
-      <c r="O140" s="10">
+      <c r="K140" s="63"/>
+      <c r="O140" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R140" s="91" t="s">
+      <c r="R140" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="91" t="s">
+      <c r="A141" t="s">
         <v>262</v>
       </c>
       <c r="B141" t="s">
         <v>261</v>
       </c>
-      <c r="C141" s="91" t="s">
+      <c r="C141" t="s">
         <v>237</v>
       </c>
-      <c r="F141" s="76">
+      <c r="F141" s="62">
         <v>44169</v>
       </c>
-      <c r="G141" s="76">
+      <c r="G141" s="62">
         <v>44169</v>
       </c>
-      <c r="J141" s="77">
+      <c r="J141" s="63">
         <v>44326</v>
       </c>
-      <c r="K141" s="77"/>
-      <c r="O141" s="10">
+      <c r="K141" s="63"/>
+      <c r="O141" s="9">
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
-      <c r="R141" s="91" t="s">
+      <c r="R141" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7055,24 +6891,24 @@
       <c r="B142" t="s">
         <v>261</v>
       </c>
-      <c r="C142" s="91" t="s">
+      <c r="C142" t="s">
         <v>237</v>
       </c>
-      <c r="F142" s="76">
+      <c r="F142" s="62">
         <v>44169</v>
       </c>
-      <c r="G142" s="76">
+      <c r="G142" s="62">
         <v>44169</v>
       </c>
-      <c r="J142" s="77">
+      <c r="J142" s="63">
         <v>44326</v>
       </c>
-      <c r="K142" s="77"/>
-      <c r="O142" s="10">
+      <c r="K142" s="63"/>
+      <c r="O142" s="9">
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
-      <c r="R142" s="91" t="s">
+      <c r="R142" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7083,164 +6919,164 @@
       <c r="B143" t="s">
         <v>261</v>
       </c>
-      <c r="C143" s="91" t="s">
+      <c r="C143" t="s">
         <v>237</v>
       </c>
-      <c r="F143" s="76">
+      <c r="F143" s="62">
         <v>44169</v>
       </c>
-      <c r="G143" s="76">
+      <c r="G143" s="62">
         <v>44169</v>
       </c>
-      <c r="J143" s="77">
+      <c r="J143" s="63">
         <v>44326</v>
       </c>
-      <c r="K143" s="77"/>
-      <c r="O143" s="10">
+      <c r="K143" s="63"/>
+      <c r="O143" s="9">
         <f t="shared" si="13"/>
         <v>157</v>
       </c>
-      <c r="R143" s="91" t="s">
+      <c r="R143" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="134" t="s">
+      <c r="A144" t="s">
         <v>265</v>
       </c>
       <c r="B144" t="s">
         <v>261</v>
       </c>
-      <c r="C144" s="91" t="s">
+      <c r="C144" t="s">
         <v>237</v>
       </c>
-      <c r="F144" s="76">
+      <c r="F144" s="62">
         <v>44174</v>
       </c>
-      <c r="G144" s="76">
+      <c r="G144" s="62">
         <v>44175</v>
       </c>
-      <c r="J144" s="77">
+      <c r="J144" s="63">
         <v>44326</v>
       </c>
-      <c r="K144" s="77"/>
-      <c r="O144" s="10">
+      <c r="K144" s="63"/>
+      <c r="O144" s="9">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
-      <c r="R144" s="91" t="s">
+      <c r="R144" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="134" t="s">
+      <c r="A145" t="s">
         <v>266</v>
       </c>
       <c r="B145" t="s">
         <v>261</v>
       </c>
-      <c r="C145" s="91" t="s">
+      <c r="C145" t="s">
         <v>237</v>
       </c>
-      <c r="F145" s="76">
+      <c r="F145" s="62">
         <v>44174</v>
       </c>
-      <c r="G145" s="76">
+      <c r="G145" s="62">
         <v>44175</v>
       </c>
-      <c r="J145" s="77">
+      <c r="J145" s="63">
         <v>44326</v>
       </c>
-      <c r="K145" s="77"/>
-      <c r="O145" s="10">
+      <c r="K145" s="63"/>
+      <c r="O145" s="9">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
-      <c r="R145" s="91" t="s">
+      <c r="R145" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A146" s="134" t="s">
+      <c r="A146" t="s">
         <v>267</v>
       </c>
       <c r="B146" t="s">
         <v>261</v>
       </c>
-      <c r="C146" s="91" t="s">
+      <c r="C146" t="s">
         <v>237</v>
       </c>
-      <c r="F146" s="76">
+      <c r="F146" s="62">
         <v>44174</v>
       </c>
-      <c r="G146" s="76">
+      <c r="G146" s="62">
         <v>44175</v>
       </c>
-      <c r="J146" s="77">
+      <c r="J146" s="63">
         <v>44326</v>
       </c>
-      <c r="K146" s="77"/>
-      <c r="O146" s="10">
+      <c r="K146" s="63"/>
+      <c r="O146" s="9">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
-      <c r="R146" s="91" t="s">
+      <c r="R146" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="134" t="s">
+      <c r="A147" t="s">
         <v>268</v>
       </c>
-      <c r="B147" s="135" t="s">
+      <c r="B147" t="s">
         <v>261</v>
       </c>
-      <c r="C147" s="136" t="s">
+      <c r="C147" t="s">
         <v>237</v>
       </c>
-      <c r="F147" s="76">
+      <c r="F147" s="62">
         <v>44174</v>
       </c>
-      <c r="G147" s="76">
+      <c r="G147" s="62">
         <v>44175</v>
       </c>
-      <c r="J147" s="77">
+      <c r="J147" s="63">
         <v>44326</v>
       </c>
-      <c r="K147" s="77"/>
-      <c r="O147" s="10">
+      <c r="K147" s="63"/>
+      <c r="O147" s="9">
         <f t="shared" si="13"/>
         <v>152</v>
       </c>
-      <c r="R147" s="91" t="s">
+      <c r="R147" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="134" t="s">
+      <c r="A148" t="s">
         <v>269</v>
       </c>
-      <c r="B148" s="135" t="s">
+      <c r="B148" t="s">
         <v>261</v>
       </c>
-      <c r="C148" s="136" t="s">
+      <c r="C148" t="s">
         <v>237</v>
       </c>
-      <c r="F148" s="76">
+      <c r="F148" s="62">
         <v>44148</v>
       </c>
-      <c r="G148" s="76">
+      <c r="G148" s="62">
         <v>44148</v>
       </c>
-      <c r="J148" s="77">
+      <c r="J148" s="63">
         <v>44298</v>
       </c>
-      <c r="K148" s="77"/>
-      <c r="O148" s="10">
+      <c r="K148" s="63"/>
+      <c r="O148" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R148" s="91" t="s">
+      <c r="R148" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7248,34 +7084,34 @@
       <c r="A149" t="s">
         <v>270</v>
       </c>
-      <c r="B149" s="135" t="s">
+      <c r="B149" t="s">
         <v>261</v>
       </c>
-      <c r="C149" s="136" t="s">
+      <c r="C149" t="s">
         <v>237</v>
       </c>
-      <c r="F149" s="76">
+      <c r="F149" s="62">
         <v>44141</v>
       </c>
-      <c r="G149" s="76">
+      <c r="G149" s="62">
         <v>44141</v>
       </c>
-      <c r="H149" s="76">
+      <c r="H149" s="62">
         <v>44230</v>
       </c>
-      <c r="J149" s="77">
+      <c r="J149" s="63">
         <v>44258</v>
       </c>
-      <c r="K149" s="77"/>
-      <c r="M149" s="10">
+      <c r="K149" s="63"/>
+      <c r="M149" s="9">
         <f>DATEDIF(F149, H149, "d")</f>
         <v>89</v>
       </c>
-      <c r="O149" s="10">
+      <c r="O149" s="9">
         <f t="shared" si="13"/>
         <v>117</v>
       </c>
-      <c r="R149" s="91" t="s">
+      <c r="R149" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7283,27 +7119,27 @@
       <c r="A150" t="s">
         <v>271</v>
       </c>
-      <c r="B150" s="135" t="s">
+      <c r="B150" t="s">
         <v>261</v>
       </c>
-      <c r="C150" s="136" t="s">
+      <c r="C150" t="s">
         <v>237</v>
       </c>
-      <c r="F150" s="76">
+      <c r="F150" s="62">
         <v>44141</v>
       </c>
-      <c r="G150" s="76">
+      <c r="G150" s="62">
         <v>44141</v>
       </c>
-      <c r="J150" s="77">
+      <c r="J150" s="63">
         <v>44291</v>
       </c>
-      <c r="K150" s="77"/>
-      <c r="O150" s="10">
+      <c r="K150" s="63"/>
+      <c r="O150" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R150" s="91" t="s">
+      <c r="R150" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7311,27 +7147,27 @@
       <c r="A151" t="s">
         <v>272</v>
       </c>
-      <c r="B151" s="135" t="s">
+      <c r="B151" t="s">
         <v>261</v>
       </c>
-      <c r="C151" s="136" t="s">
+      <c r="C151" t="s">
         <v>237</v>
       </c>
-      <c r="F151" s="76">
+      <c r="F151" s="62">
         <v>44141</v>
       </c>
-      <c r="G151" s="76">
+      <c r="G151" s="62">
         <v>44141</v>
       </c>
-      <c r="J151" s="77">
+      <c r="J151" s="63">
         <v>44291</v>
       </c>
-      <c r="K151" s="77"/>
-      <c r="O151" s="10">
+      <c r="K151" s="63"/>
+      <c r="O151" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R151" s="91" t="s">
+      <c r="R151" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7339,27 +7175,27 @@
       <c r="A152" t="s">
         <v>273</v>
       </c>
-      <c r="B152" s="135" t="s">
+      <c r="B152" t="s">
         <v>261</v>
       </c>
-      <c r="C152" s="136" t="s">
+      <c r="C152" t="s">
         <v>237</v>
       </c>
-      <c r="F152" s="76">
+      <c r="F152" s="62">
         <v>44141</v>
       </c>
-      <c r="G152" s="76">
+      <c r="G152" s="62">
         <v>44141</v>
       </c>
-      <c r="J152" s="77">
+      <c r="J152" s="63">
         <v>44291</v>
       </c>
-      <c r="K152" s="77"/>
-      <c r="O152" s="10">
+      <c r="K152" s="63"/>
+      <c r="O152" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R152" s="91" t="s">
+      <c r="R152" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7367,27 +7203,27 @@
       <c r="A153" t="s">
         <v>274</v>
       </c>
-      <c r="B153" s="135" t="s">
+      <c r="B153" t="s">
         <v>261</v>
       </c>
-      <c r="C153" s="136" t="s">
+      <c r="C153" t="s">
         <v>237</v>
       </c>
-      <c r="F153" s="76">
+      <c r="F153" s="62">
         <v>44141</v>
       </c>
-      <c r="G153" s="76">
+      <c r="G153" s="62">
         <v>44141</v>
       </c>
-      <c r="J153" s="77">
+      <c r="J153" s="63">
         <v>44291</v>
       </c>
-      <c r="K153" s="77"/>
-      <c r="O153" s="10">
+      <c r="K153" s="63"/>
+      <c r="O153" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R153" s="91" t="s">
+      <c r="R153" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7395,27 +7231,27 @@
       <c r="A154" t="s">
         <v>275</v>
       </c>
-      <c r="B154" s="135" t="s">
+      <c r="B154" t="s">
         <v>261</v>
       </c>
-      <c r="C154" s="136" t="s">
+      <c r="C154" t="s">
         <v>237</v>
       </c>
-      <c r="F154" s="76">
+      <c r="F154" s="62">
         <v>44141</v>
       </c>
-      <c r="G154" s="76">
+      <c r="G154" s="62">
         <v>44144</v>
       </c>
-      <c r="J154" s="77">
+      <c r="J154" s="63">
         <v>44291</v>
       </c>
-      <c r="K154" s="77"/>
-      <c r="O154" s="10">
+      <c r="K154" s="63"/>
+      <c r="O154" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R154" s="91" t="s">
+      <c r="R154" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7423,27 +7259,27 @@
       <c r="A155" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="135" t="s">
+      <c r="B155" t="s">
         <v>261</v>
       </c>
-      <c r="C155" s="136" t="s">
+      <c r="C155" t="s">
         <v>237</v>
       </c>
-      <c r="F155" s="76">
+      <c r="F155" s="62">
         <v>44141</v>
       </c>
-      <c r="G155" s="76">
+      <c r="G155" s="62">
         <v>44144</v>
       </c>
-      <c r="J155" s="77">
+      <c r="J155" s="63">
         <v>44291</v>
       </c>
-      <c r="K155" s="77"/>
-      <c r="O155" s="10">
+      <c r="K155" s="63"/>
+      <c r="O155" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R155" s="91" t="s">
+      <c r="R155" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7451,27 +7287,27 @@
       <c r="A156" t="s">
         <v>277</v>
       </c>
-      <c r="B156" s="135" t="s">
+      <c r="B156" t="s">
         <v>261</v>
       </c>
-      <c r="C156" s="136" t="s">
+      <c r="C156" t="s">
         <v>237</v>
       </c>
-      <c r="F156" s="76">
+      <c r="F156" s="62">
         <v>44141</v>
       </c>
-      <c r="G156" s="76">
+      <c r="G156" s="62">
         <v>44144</v>
       </c>
-      <c r="J156" s="77">
+      <c r="J156" s="63">
         <v>44291</v>
       </c>
-      <c r="K156" s="77"/>
-      <c r="O156" s="10">
+      <c r="K156" s="63"/>
+      <c r="O156" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R156" s="91" t="s">
+      <c r="R156" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7479,27 +7315,27 @@
       <c r="A157" t="s">
         <v>278</v>
       </c>
-      <c r="B157" s="135" t="s">
+      <c r="B157" t="s">
         <v>261</v>
       </c>
-      <c r="C157" s="136" t="s">
+      <c r="C157" t="s">
         <v>237</v>
       </c>
-      <c r="F157" s="76">
+      <c r="F157" s="62">
         <v>44141</v>
       </c>
-      <c r="G157" s="76">
+      <c r="G157" s="62">
         <v>44144</v>
       </c>
-      <c r="J157" s="77">
+      <c r="J157" s="63">
         <v>44291</v>
       </c>
-      <c r="K157" s="77"/>
-      <c r="O157" s="10">
+      <c r="K157" s="63"/>
+      <c r="O157" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R157" s="91" t="s">
+      <c r="R157" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7507,27 +7343,27 @@
       <c r="A158" t="s">
         <v>279</v>
       </c>
-      <c r="B158" s="135" t="s">
+      <c r="B158" t="s">
         <v>261</v>
       </c>
-      <c r="C158" s="136" t="s">
+      <c r="C158" t="s">
         <v>237</v>
       </c>
-      <c r="F158" s="76">
+      <c r="F158" s="62">
         <v>44141</v>
       </c>
-      <c r="G158" s="76">
+      <c r="G158" s="62">
         <v>44144</v>
       </c>
-      <c r="J158" s="77">
+      <c r="J158" s="63">
         <v>44291</v>
       </c>
-      <c r="K158" s="77"/>
-      <c r="O158" s="10">
+      <c r="K158" s="63"/>
+      <c r="O158" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R158" s="91" t="s">
+      <c r="R158" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7535,27 +7371,27 @@
       <c r="A159" t="s">
         <v>280</v>
       </c>
-      <c r="B159" s="135" t="s">
+      <c r="B159" t="s">
         <v>261</v>
       </c>
-      <c r="C159" s="136" t="s">
+      <c r="C159" t="s">
         <v>237</v>
       </c>
-      <c r="F159" s="76">
+      <c r="F159" s="62">
         <v>44141</v>
       </c>
-      <c r="G159" s="76">
+      <c r="G159" s="62">
         <v>44144</v>
       </c>
-      <c r="J159" s="77">
+      <c r="J159" s="63">
         <v>44291</v>
       </c>
-      <c r="K159" s="77"/>
-      <c r="O159" s="10">
+      <c r="K159" s="63"/>
+      <c r="O159" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R159" s="91" t="s">
+      <c r="R159" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7563,27 +7399,27 @@
       <c r="A160" t="s">
         <v>282</v>
       </c>
-      <c r="B160" s="135" t="s">
+      <c r="B160" t="s">
         <v>261</v>
       </c>
-      <c r="C160" s="136" t="s">
+      <c r="C160" t="s">
         <v>237</v>
       </c>
-      <c r="F160" s="76">
+      <c r="F160" s="62">
         <v>44124</v>
       </c>
-      <c r="G160" s="76">
+      <c r="G160" s="62">
         <v>44124</v>
       </c>
-      <c r="J160" s="77">
+      <c r="J160" s="63">
         <v>44274</v>
       </c>
-      <c r="K160" s="77"/>
-      <c r="O160" s="10">
+      <c r="K160" s="63"/>
+      <c r="O160" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R160" s="91" t="s">
+      <c r="R160" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7591,27 +7427,27 @@
       <c r="A161" t="s">
         <v>283</v>
       </c>
-      <c r="B161" s="135" t="s">
+      <c r="B161" t="s">
         <v>261</v>
       </c>
-      <c r="C161" s="136" t="s">
+      <c r="C161" t="s">
         <v>237</v>
       </c>
-      <c r="F161" s="76">
+      <c r="F161" s="62">
         <v>44124</v>
       </c>
-      <c r="G161" s="76">
+      <c r="G161" s="62">
         <v>44124</v>
       </c>
-      <c r="J161" s="77">
+      <c r="J161" s="63">
         <v>44274</v>
       </c>
-      <c r="K161" s="77"/>
-      <c r="O161" s="10">
+      <c r="K161" s="63"/>
+      <c r="O161" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R161" s="91" t="s">
+      <c r="R161" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7619,27 +7455,27 @@
       <c r="A162" t="s">
         <v>284</v>
       </c>
-      <c r="B162" s="135" t="s">
+      <c r="B162" t="s">
         <v>261</v>
       </c>
-      <c r="C162" s="136" t="s">
+      <c r="C162" t="s">
         <v>237</v>
       </c>
-      <c r="F162" s="76">
+      <c r="F162" s="62">
         <v>44124</v>
       </c>
-      <c r="G162" s="76">
+      <c r="G162" s="62">
         <v>44124</v>
       </c>
-      <c r="J162" s="77">
+      <c r="J162" s="63">
         <v>44274</v>
       </c>
-      <c r="K162" s="77"/>
-      <c r="O162" s="10">
+      <c r="K162" s="63"/>
+      <c r="O162" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R162" s="91" t="s">
+      <c r="R162" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7647,27 +7483,27 @@
       <c r="A163" t="s">
         <v>285</v>
       </c>
-      <c r="B163" s="135" t="s">
+      <c r="B163" t="s">
         <v>261</v>
       </c>
-      <c r="C163" s="136" t="s">
+      <c r="C163" t="s">
         <v>237</v>
       </c>
-      <c r="F163" s="76">
+      <c r="F163" s="62">
         <v>44124</v>
       </c>
-      <c r="G163" s="76">
+      <c r="G163" s="62">
         <v>44124</v>
       </c>
-      <c r="J163" s="77">
+      <c r="J163" s="63">
         <v>44274</v>
       </c>
-      <c r="K163" s="77"/>
-      <c r="O163" s="10">
+      <c r="K163" s="63"/>
+      <c r="O163" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R163" s="91" t="s">
+      <c r="R163" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7675,27 +7511,27 @@
       <c r="A164" t="s">
         <v>286</v>
       </c>
-      <c r="B164" s="135" t="s">
+      <c r="B164" t="s">
         <v>261</v>
       </c>
-      <c r="C164" s="136" t="s">
+      <c r="C164" t="s">
         <v>237</v>
       </c>
-      <c r="F164" s="76">
+      <c r="F164" s="62">
         <v>44124</v>
       </c>
-      <c r="G164" s="76">
+      <c r="G164" s="62">
         <v>44124</v>
       </c>
-      <c r="J164" s="77">
+      <c r="J164" s="63">
         <v>44274</v>
       </c>
-      <c r="K164" s="77"/>
-      <c r="O164" s="10">
+      <c r="K164" s="63"/>
+      <c r="O164" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R164" s="91" t="s">
+      <c r="R164" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7703,62 +7539,62 @@
       <c r="A165" t="s">
         <v>287</v>
       </c>
-      <c r="B165" s="135" t="s">
+      <c r="B165" t="s">
         <v>261</v>
       </c>
-      <c r="C165" s="136" t="s">
+      <c r="C165" t="s">
         <v>237</v>
       </c>
-      <c r="F165" s="76">
+      <c r="F165" s="62">
         <v>44124</v>
       </c>
-      <c r="G165" s="76">
+      <c r="G165" s="62">
         <v>44124</v>
       </c>
-      <c r="J165" s="77">
+      <c r="J165" s="63">
         <v>44274</v>
       </c>
-      <c r="K165" s="77"/>
-      <c r="O165" s="10">
+      <c r="K165" s="63"/>
+      <c r="O165" s="9">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="R165" s="91" t="s">
+      <c r="R165" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="1:18" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="137" t="s">
+    <row r="166" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B166" s="120" t="s">
+      <c r="B166" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="D166" s="138"/>
-      <c r="E166" s="138"/>
-      <c r="F166" s="138"/>
-      <c r="G166" s="138"/>
-      <c r="M166" s="138">
+      <c r="D166" s="97"/>
+      <c r="E166" s="97"/>
+      <c r="F166" s="97"/>
+      <c r="G166" s="97"/>
+      <c r="M166" s="97">
         <f>AVERAGE(M149:M165)</f>
         <v>89</v>
       </c>
-      <c r="N166" s="138"/>
-      <c r="O166" s="138">
+      <c r="N166" s="97"/>
+      <c r="O166" s="97">
         <f>AVERAGE(O149:O165)</f>
         <v>148.05882352941177</v>
       </c>
     </row>
-    <row r="167" spans="1:18" s="130" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="139" t="s">
+    <row r="167" spans="1:18" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D167" s="140"/>
-      <c r="E167" s="140"/>
-      <c r="F167" s="140"/>
-      <c r="G167" s="140"/>
-      <c r="M167" s="140"/>
-      <c r="N167" s="140"/>
-      <c r="O167" s="140">
+      <c r="D167" s="103"/>
+      <c r="E167" s="103"/>
+      <c r="F167" s="103"/>
+      <c r="G167" s="103"/>
+      <c r="M167" s="103"/>
+      <c r="N167" s="103"/>
+      <c r="O167" s="103">
         <f t="shared" ref="O167" si="14">MEDIAN(O149:O165)</f>
         <v>150</v>
       </c>
@@ -7770,7 +7606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7787,166 +7623,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="61" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="59" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="59" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="59" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="59" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="59" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="59" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="59" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="59" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="59" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="59" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="59" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="59" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="59" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="59" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="59" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7957,8 +7793,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72c5dd4de6ee2a9f5337ff02160f23b1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7858ab809dd018e06c72c2e5abe05b4" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407fb276827c0378326bfe40beac0cd1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4f633fea242de49d6ab069ffd2c9835" ns2:_="" ns3:_="">
     <xsd:import namespace="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
     <xsd:import namespace="fe56dbcb-f404-42a8-8006-471f9c1a2fc9"/>
     <xsd:element name="properties">
@@ -7976,6 +7821,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8026,6 +7872,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -8145,19 +7996,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98fb7176-381e-4eb6-825b-93e64c92b6ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68383E7D-8F56-4409-9C52-C0B4A11D3303}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{143E9C87-6AC8-4D6E-9D61-E48A7684D045}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{143E9C87-6AC8-4D6E-9D61-E48A7684D045}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8ED9883-0EB4-4460-B44B-71550D5D8CD4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C13D24-31EB-48FD-8B44-BAC81DACE451}"/>
 </file>
--- a/cohorts2/ref/cohorts1-prev/raw/Riley NF1 Glioma Data (Mouse Cohorts).xlsx
+++ b/cohorts2/ref/cohorts1-prev/raw/Riley NF1 Glioma Data (Mouse Cohorts).xlsx
@@ -7802,8 +7802,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407fb276827c0378326bfe40beac0cd1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4f633fea242de49d6ab069ffd2c9835" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A52921E31622BA47A5BEE7A2CE318F26" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbbe4ce2f8fe09d1c797aa555d1ed32a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98fb7176-381e-4eb6-825b-93e64c92b6ea" xmlns:ns3="fe56dbcb-f404-42a8-8006-471f9c1a2fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e562a0e15c5e5c6d0c89a0f84659810" ns2:_="" ns3:_="">
     <xsd:import namespace="98fb7176-381e-4eb6-825b-93e64c92b6ea"/>
     <xsd:import namespace="fe56dbcb-f404-42a8-8006-471f9c1a2fc9"/>
     <xsd:element name="properties">
@@ -7822,6 +7822,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7879,6 +7880,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8016,7 +8022,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8ED9883-0EB4-4460-B44B-71550D5D8CD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7863E49-E4CD-4FBA-A0EE-F7279D19CB63}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
